--- a/hourly datasets/PlantID_year-2final.xlsx
+++ b/hourly datasets/PlantID_year-2final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B619"/>
+  <dimension ref="A1:C594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Coef.</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>intercept</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,13 +457,19 @@
       <c r="B2" t="n">
         <v>0.2968636468918256</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.2564319803901672</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>8226</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3349641177161321</v>
+        <v>0.3349697867437086</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1324599372469955</v>
       </c>
     </row>
     <row r="4">
@@ -468,6 +479,9 @@
       <c r="B4" t="n">
         <v>0.3601439679243749</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.3482359334448553</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -476,13 +490,19 @@
       <c r="B5" t="n">
         <v>0.3801962404324404</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.3656137070868914</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>8222</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2976336593411995</v>
+        <v>0.2976356002958436</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1084463181063474</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +510,10 @@
         <v>8219</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3610815329471068</v>
+        <v>0.3610383973735769</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2645315637774583</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +521,10 @@
         <v>8102</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3857325719707155</v>
+        <v>0.3857313747462318</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.288815032957372</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +532,10 @@
         <v>8069</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3357976394621444</v>
+        <v>0.3357986884090893</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2182186761402378</v>
       </c>
     </row>
     <row r="10">
@@ -516,13 +545,19 @@
       <c r="B10" t="n">
         <v>0.3203487615119231</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.2905200208638104</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>8063</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3677812922228508</v>
+        <v>0.367772349169169</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1651276054966808</v>
       </c>
     </row>
     <row r="12">
@@ -532,13 +567,19 @@
       <c r="B12" t="n">
         <v>0.2223394647558717</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.09440005497684494</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>8056</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3580779635416911</v>
+        <v>0.3580915526969401</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2578735151908779</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +587,10 @@
         <v>8054</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3752905988750667</v>
+        <v>0.3752906254700635</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1335943896102709</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +598,10 @@
         <v>8049</v>
       </c>
       <c r="B15" t="n">
-        <v>0.280430642509182</v>
+        <v>0.3107578816827398</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2657101311999841</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +609,10 @@
         <v>8048</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3087067272996546</v>
+        <v>0.3087016804452031</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2412794530632585</v>
       </c>
     </row>
     <row r="17">
@@ -572,13 +622,19 @@
       <c r="B17" t="n">
         <v>0.4214858258833883</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.3821017699976514</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>8023</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3032751027532029</v>
+        <v>0.3032501849094176</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2191504687169586</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +642,10 @@
         <v>8006</v>
       </c>
       <c r="B19" t="n">
-        <v>0.308779419948461</v>
+        <v>0.3087779814365409</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2252931997503615</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +653,10 @@
         <v>8002</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2805408591936942</v>
+        <v>0.280542159826445</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1208538786720713</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +664,10 @@
         <v>7902</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3311982104979548</v>
+        <v>0.3311877188138195</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2102588775608195</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +675,10 @@
         <v>7790</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3328224553714813</v>
+        <v>0.332799377229491</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1999792561565072</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +686,10 @@
         <v>7693</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3861409321767708</v>
+        <v>0.3861270269435212</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3894413384186623</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +697,10 @@
         <v>7605</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4923970485145516</v>
+        <v>0.4924444099452715</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.09837274770152706</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +708,10 @@
         <v>7504</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3506114318600796</v>
+        <v>0.3508466716376184</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1082381315181262</v>
       </c>
     </row>
     <row r="26">
@@ -644,13 +721,19 @@
       <c r="B26" t="n">
         <v>0.3494267512158397</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.336511566476726</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7425</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2947575174747056</v>
+        <v>0.2948412050327762</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1059964347745603</v>
       </c>
     </row>
     <row r="28">
@@ -660,4733 +743,6234 @@
       <c r="B28" t="n">
         <v>0.3072681196415544</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.2465796686003827</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7343</v>
+        <v>7345</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4688334014095594</v>
+        <v>0.2480567526483639</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.05477570168612826</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7325</v>
+        <v>7343</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2931002920996648</v>
+        <v>0.469329194460078</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2723282021787108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7318</v>
+        <v>7325</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2700245118564874</v>
+        <v>0.2931004053151717</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2973230872764369</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7288</v>
+        <v>7318</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3132118233720841</v>
+        <v>0.270024511856487</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2215875442092843</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7277</v>
+        <v>7288</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279087514241144</v>
+        <v>0.3132118233720841</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2442324180460045</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7270</v>
+        <v>7277</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2614144546785129</v>
+        <v>0.279087514241144</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.2765894194070829</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7258</v>
+        <v>7270</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3387903072466787</v>
+        <v>0.2614144546785129</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.196153424124606</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7254</v>
+        <v>7258</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3438638079612515</v>
+        <v>0.3387998148773808</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1494389600670892</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7242</v>
+        <v>7254</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3290251706300025</v>
+        <v>0.3438699521635084</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.09979155268050209</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7237</v>
+        <v>7242</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2868262897885532</v>
+        <v>0.3945425322485624</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1339175756309279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7213</v>
+        <v>7237</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3400046460120634</v>
+        <v>0.2868262897885532</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1564342576540847</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7210</v>
+        <v>7213</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3290968808528117</v>
+        <v>0.3400044426432781</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.255163197117712</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7203</v>
+        <v>7210</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2576204554129802</v>
+        <v>0.3291017937407981</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.2596439763737392</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7159</v>
+        <v>7203</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2530248824971075</v>
+        <v>0.2576204554129802</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1633881017619825</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7158</v>
+        <v>7185</v>
       </c>
       <c r="B43" t="n">
-        <v>0.256859735864805</v>
+        <v>0.5775566260376709</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5831958668120458</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7155</v>
+        <v>7159</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2825902047822391</v>
+        <v>0.2530248824971075</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1942222260013987</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7145</v>
+        <v>7158</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2794744930784398</v>
+        <v>0.256866576092592</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1310587292613671</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7097</v>
+        <v>7155</v>
       </c>
       <c r="B46" t="n">
-        <v>0.356867299179681</v>
+        <v>0.2825902047822391</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1964069836467113</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7082</v>
+        <v>7145</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3027454358130565</v>
+        <v>0.3463441134069628</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1630454037233856</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7063</v>
+        <v>7097</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5006678918690949</v>
+        <v>0.356867299179681</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.3508694779021809</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7030</v>
+        <v>7082</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3177248005733322</v>
+        <v>0.3027903164933139</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.2087136717824559</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7013</v>
+        <v>7063</v>
       </c>
       <c r="B50" t="n">
-        <v>0.287538383824325</v>
+        <v>0.5006678918690949</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.6215322816061712</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6823</v>
+        <v>7030</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3827897103773696</v>
+        <v>0.3177228471908428</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1837740983037285</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6772</v>
+        <v>7013</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3237918300481897</v>
+        <v>0.287534993165679</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2109461601028652</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6768</v>
+        <v>6823</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3188148020364789</v>
+        <v>0.3827910069703625</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.1182471155403337</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6761</v>
+        <v>6772</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3023595021386833</v>
+        <v>0.3241643642528268</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1883928419030843</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6705</v>
+        <v>6768</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3458354236027924</v>
+        <v>0.3189040566822459</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.08082827784903271</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6664</v>
+        <v>6761</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3120653694867743</v>
+        <v>0.3023570499877022</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2100320171967365</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6648</v>
+        <v>6705</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3251244542855453</v>
+        <v>0.3458354236027924</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.3254016818339533</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6641</v>
+        <v>6664</v>
       </c>
       <c r="B58" t="n">
-        <v>0.316719082595043</v>
+        <v>0.312066842813471</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1764192694733605</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6639</v>
+        <v>6648</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3429126393991645</v>
+        <v>0.3251244542855453</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.1870413831891282</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6558</v>
+        <v>6641</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3299731480598858</v>
+        <v>0.316719082595043</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.2740995360228072</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6481</v>
+        <v>6639</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3452053865431542</v>
+        <v>0.3429233742174654</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.339260996786754</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6469</v>
+        <v>6558</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3094246931670457</v>
+        <v>0.3300230114534664</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.2067690216076124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6264</v>
+        <v>6481</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3886769346396063</v>
+        <v>0.3452053865431542</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.3399578551616925</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6257</v>
+        <v>6469</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3678446219977234</v>
+        <v>0.3094246931670457</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.3078788597752687</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6254</v>
+        <v>6264</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3453639185735308</v>
+        <v>0.3886773928261506</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.1503819670784234</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6249</v>
+        <v>6257</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3477003661201788</v>
+        <v>0.3678446219977234</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.349882378257492</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6248</v>
+        <v>6254</v>
       </c>
       <c r="B67" t="n">
-        <v>0.340820218424165</v>
+        <v>0.3453805828087032</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1873298923281408</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6243</v>
+        <v>6249</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3387366926559704</v>
+        <v>0.3477003661201788</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.3212508382361797</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6213</v>
+        <v>6248</v>
       </c>
       <c r="B69" t="n">
-        <v>0.312726622894674</v>
+        <v>0.340820218424165</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1260142672533008</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6204</v>
+        <v>6243</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3128758446484607</v>
+        <v>0.3387361479790529</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1221353151921686</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6195</v>
+        <v>6213</v>
       </c>
       <c r="B71" t="n">
-        <v>0.411468247208963</v>
+        <v>0.312726622894674</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.2104394569729339</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6194</v>
+        <v>6204</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3933650355791407</v>
+        <v>0.3128755087890055</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.3132053393072263</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6193</v>
+        <v>6195</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3212893811379328</v>
+        <v>0.4119934104308135</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.387581796196936</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6183</v>
+        <v>6194</v>
       </c>
       <c r="B74" t="n">
-        <v>0.315852042748515</v>
+        <v>0.3933650355791407</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.3443277197578359</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6181</v>
+        <v>6193</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3738846238431691</v>
+        <v>0.3212893811379328</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.3173434431903428</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6179</v>
+        <v>6183</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3584466473257369</v>
+        <v>0.315853470073952</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1271442885465213</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6178</v>
+        <v>6181</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3896962290340481</v>
+        <v>0.3738846238431691</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.2120413562525915</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6177</v>
+        <v>6179</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3675494564690747</v>
+        <v>0.3584466473257369</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.3433588311866</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6170</v>
+        <v>6178</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3062910705010076</v>
+        <v>0.3897317513799173</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.2001840007397938</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6166</v>
+        <v>6177</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2958735857985326</v>
+        <v>0.3675494564690747</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.3554154662339645</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6165</v>
+        <v>6170</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3144066000195449</v>
+        <v>0.3062910705010076</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1564961622579737</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6156</v>
+        <v>6166</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3532897487339478</v>
+        <v>0.2958735857985326</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.2977904386149388</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6155</v>
+        <v>6165</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3429043595122838</v>
+        <v>0.3144066000195424</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.2496497675522177</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6147</v>
+        <v>6156</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3270650721819839</v>
+        <v>0.3532949413265304</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.2103567943504752</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6146</v>
+        <v>6155</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3280196381845245</v>
+        <v>0.3429043595122838</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.3406880988901761</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6139</v>
+        <v>6147</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2980623926344052</v>
+        <v>0.3270650721819839</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.3145658840113311</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6138</v>
+        <v>6146</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3503167469830384</v>
+        <v>0.3280196381845245</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.3238169413041874</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6137</v>
+        <v>6139</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3573920062967905</v>
+        <v>0.2980623926344052</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.2959735557547539</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6136</v>
+        <v>6138</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3682328818412612</v>
+        <v>0.350223121211174</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1810602616307803</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6124</v>
+        <v>6137</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4148009322876776</v>
+        <v>0.3573920062967905</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.359590358504617</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6113</v>
+        <v>6136</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2686406027347634</v>
+        <v>0.3682328818412611</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.3752367883090493</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6106</v>
+        <v>6124</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3175650543875741</v>
+        <v>0.4148030837391616</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.3941124627842707</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6101</v>
+        <v>6113</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2949724396270366</v>
+        <v>0.2686406027347634</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1891231744723628</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6098</v>
+        <v>6106</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3111689269531525</v>
+        <v>0.3175651088138574</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.1826458525904393</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>6096</v>
+        <v>6101</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3030338900851278</v>
+        <v>0.2949724396270366</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.08143702107673002</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6095</v>
+        <v>6098</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3217313887987848</v>
+        <v>0.3111750681127068</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.1187234384673946</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6094</v>
+        <v>6096</v>
       </c>
       <c r="B97" t="n">
-        <v>0.38381943340786</v>
+        <v>0.3030337021324707</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.124746898580344</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6090</v>
+        <v>6095</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3297335522454689</v>
+        <v>0.3217210520765053</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.3118567555903048</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6089</v>
+        <v>6094</v>
       </c>
       <c r="B99" t="n">
-        <v>0.364703357442046</v>
+        <v>0.3838169239132641</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.3350541282723417</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6085</v>
+        <v>6090</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3148786149873246</v>
+        <v>0.3297335522454689</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.3271856874741925</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>6082</v>
+        <v>6089</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3379838315216449</v>
+        <v>0.3647432836221234</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.1560664164501602</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>6077</v>
+        <v>6085</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3330946453248976</v>
+        <v>0.3148786149873246</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.2747993069980913</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>6076</v>
+        <v>6082</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3309053048517705</v>
+        <v>0.3379708526199653</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.1971869294955435</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6073</v>
+        <v>6077</v>
       </c>
       <c r="B104" t="n">
-        <v>0.330974557085664</v>
+        <v>0.3330946453248976</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.330713172320246</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6071</v>
+        <v>6076</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3796108660603075</v>
+        <v>0.3309053048517705</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.3279636087936322</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>6068</v>
+        <v>6073</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3250954644901578</v>
+        <v>0.330971690013501</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.2492613940555289</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>6065</v>
+        <v>6071</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3408301683881757</v>
+        <v>0.3795948489023557</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.2533256800307484</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>6064</v>
+        <v>6068</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3371160886595256</v>
+        <v>0.3250954644901578</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.2977661973647519</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>6061</v>
+        <v>6065</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3049385169576003</v>
+        <v>0.3408301050926575</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.1148588281937655</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>6055</v>
+        <v>6064</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3039405343944298</v>
+        <v>0.3368273765891816</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.09879353701353688</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>6052</v>
+        <v>6061</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3773010778332366</v>
+        <v>0.3049388909026609</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.2991345231935864</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6046</v>
+        <v>6055</v>
       </c>
       <c r="B112" t="n">
-        <v>0.2735078437064308</v>
+        <v>0.3039405343944298</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.3051037188549688</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>6042</v>
+        <v>6052</v>
       </c>
       <c r="B113" t="n">
-        <v>0.316429439256368</v>
+        <v>0.3772990317537877</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.376679576342482</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>6041</v>
+        <v>6046</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3299379939859914</v>
+        <v>0.2735078437064308</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.2375708406012798</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>6035</v>
+        <v>6042</v>
       </c>
       <c r="B115" t="n">
-        <v>0.368883493721569</v>
+        <v>0.3164566937191131</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.2383667626088732</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>6034</v>
+        <v>6041</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3337951107512259</v>
+        <v>0.3299379939859914</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.2880980397483878</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>6031</v>
+        <v>6035</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3204176728884333</v>
+        <v>0.3688892396646017</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.1030986996348975</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>6030</v>
+        <v>6034</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2726610203841188</v>
+        <v>0.3337955489285387</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.1186314824725223</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>6025</v>
+        <v>6031</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2835377868189194</v>
+        <v>0.3204182863817009</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.1277635325234937</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>6021</v>
+        <v>6030</v>
       </c>
       <c r="B120" t="n">
-        <v>0.361726957125393</v>
+        <v>0.2726600376248473</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.2225869186416826</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6019</v>
+        <v>6025</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4005030208896903</v>
+        <v>0.2832048882987542</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.1929900111106134</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6018</v>
+        <v>6021</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3409061541724937</v>
+        <v>0.361726957125393</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.2172421213509709</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6017</v>
+        <v>6019</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3444185861728556</v>
+        <v>0.4005050977425537</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.1809906912459475</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>6016</v>
+        <v>6018</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3774846548136587</v>
+        <v>0.3409061541724937</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.2111790729891568</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6013</v>
+        <v>6017</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3321328700453797</v>
+        <v>0.344419946592003</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.1801071503529966</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>6009</v>
+        <v>6016</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3277602027868463</v>
+        <v>0.3774835268801675</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.2079504244996985</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>6004</v>
+        <v>6013</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3612575236977701</v>
+        <v>0.365459282148481</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.2638602861140044</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>6002</v>
+        <v>6009</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3479361427567617</v>
+        <v>0.3277602436310982</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.2542239979018045</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4941</v>
+        <v>6004</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3339806834763486</v>
+        <v>0.361262032346337</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.1827037979415764</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4940</v>
+        <v>6002</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3616547788659966</v>
+        <v>0.3479361427567617</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.3462870264373669</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4939</v>
+        <v>4941</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3556058526360075</v>
+        <v>0.3339802385162794</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.313694559861747</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4938</v>
+        <v>4940</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3568498749056587</v>
+        <v>0.3616724058874732</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.2808525782913727</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4937</v>
+        <v>4939</v>
       </c>
       <c r="B133" t="n">
-        <v>0.370537087362622</v>
+        <v>0.3556058526360075</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.355174417023844</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4271</v>
+        <v>4938</v>
       </c>
       <c r="B134" t="n">
-        <v>0.2995009966432239</v>
+        <v>0.3568498749056587</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.3537411386669546</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4266</v>
+        <v>4937</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3300631976148738</v>
+        <v>0.3705428227510362</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.2186332526969098</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4259</v>
+        <v>4271</v>
       </c>
       <c r="B136" t="n">
-        <v>0.256764562214877</v>
+        <v>0.29951397676328</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.1633918121671253</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4195</v>
+        <v>4266</v>
       </c>
       <c r="B137" t="n">
-        <v>0.353038116739384</v>
+        <v>0.3300937118849923</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.2401702327740896</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4162</v>
+        <v>4259</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3042047804386822</v>
+        <v>0.2567691942835559</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.1768275382557191</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4158</v>
+        <v>4195</v>
       </c>
       <c r="B139" t="n">
-        <v>0.2899447099541806</v>
+        <v>0.3530410847712799</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.2545191939079816</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4146</v>
+        <v>4162</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3118434069935966</v>
+        <v>0.3042047804386822</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.291292614130948</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4140</v>
+        <v>4158</v>
       </c>
       <c r="B141" t="n">
-        <v>0.2846960528166349</v>
+        <v>0.2899447099541806</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.2669329056344306</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>4078</v>
+        <v>4146</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3392485266207377</v>
+        <v>0.3095258828763019</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.1255053196328601</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>4076</v>
+        <v>4140</v>
       </c>
       <c r="B143" t="n">
-        <v>0.2762490644935405</v>
+        <v>0.2846960634166976</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.1971861431494258</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>4072</v>
+        <v>4078</v>
       </c>
       <c r="B144" t="n">
-        <v>0.2864911798714984</v>
+        <v>0.3392485266207377</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.2727601471384602</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>4057</v>
+        <v>4076</v>
       </c>
       <c r="B145" t="n">
-        <v>0.2754090482845146</v>
+        <v>0.2762490644935405</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.1650619460297151</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>4054</v>
+        <v>4072</v>
       </c>
       <c r="B146" t="n">
-        <v>0.3753755015103126</v>
+        <v>0.2864911798714984</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.226526033732087</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>4050</v>
+        <v>4057</v>
       </c>
       <c r="B147" t="n">
-        <v>0.3305536256113177</v>
+        <v>0.286540238920295</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.2402492854072208</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>4041</v>
+        <v>4054</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3400257934197811</v>
+        <v>0.3753750614492724</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.1651731869280189</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>4040</v>
+        <v>4050</v>
       </c>
       <c r="B149" t="n">
-        <v>0.2732971882452148</v>
+        <v>0.3305536256113177</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.2094074369637638</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>3992</v>
+        <v>4042</v>
       </c>
       <c r="B150" t="n">
-        <v>0.320769192917814</v>
+        <v>0.7976702039143579</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.7916802084709323</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>3982</v>
+        <v>4041</v>
       </c>
       <c r="B151" t="n">
-        <v>0.2603433226083081</v>
+        <v>0.3400257934197811</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.3445558355717898</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3954</v>
+        <v>4040</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3384219338147189</v>
+        <v>0.2732972254127086</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.2467749378447225</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>3948</v>
+        <v>3992</v>
       </c>
       <c r="B153" t="n">
-        <v>0.388116416887463</v>
+        <v>0.3206613306827213</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.2496825293702309</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>3947</v>
+        <v>3982</v>
       </c>
       <c r="B154" t="n">
-        <v>0.368919715881362</v>
+        <v>0.260343322608308</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.2482879421173661</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>3946</v>
+        <v>3954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3323716825925959</v>
+        <v>0.3384219338147189</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.3369433072700765</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>3945</v>
+        <v>3948</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2845069009555981</v>
+        <v>0.3881157471689102</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.2651475214305002</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3944</v>
+        <v>3947</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3388207845793582</v>
+        <v>0.3689171907447088</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.263681780697462</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3943</v>
+        <v>3946</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3806540068561285</v>
+        <v>0.3323792462885121</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.2228836831950284</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3942</v>
+        <v>3945</v>
       </c>
       <c r="B159" t="n">
-        <v>0.3221974919733963</v>
+        <v>0.2845098893794041</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.1390637081759012</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3938</v>
+        <v>3944</v>
       </c>
       <c r="B160" t="n">
-        <v>0.3987079198486009</v>
+        <v>0.3388202732215168</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.3124409609726069</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>3936</v>
+        <v>3943</v>
       </c>
       <c r="B161" t="n">
-        <v>0.4983739947979806</v>
+        <v>0.3806563231536527</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.3826637326642375</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3935</v>
+        <v>3942</v>
       </c>
       <c r="B162" t="n">
-        <v>0.3758950755601062</v>
+        <v>0.3222073415618932</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.2526313847010768</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>3845</v>
+        <v>3938</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3077259652127228</v>
+        <v>0.3987079198486009</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.3985795569454333</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>3809</v>
+        <v>3936</v>
       </c>
       <c r="B164" t="n">
-        <v>0.3351747191746453</v>
+        <v>0.4983739947979806</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.2766934972208559</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>3804</v>
+        <v>3935</v>
       </c>
       <c r="B165" t="n">
-        <v>0.3463669643774551</v>
+        <v>0.3758937628721392</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.3833008619356873</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3803</v>
+        <v>3845</v>
       </c>
       <c r="B166" t="n">
-        <v>0.3562200887509438</v>
+        <v>0.3077259652127228</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.3020515039609459</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>3796</v>
+        <v>3809</v>
       </c>
       <c r="B167" t="n">
-        <v>0.3550092761477003</v>
+        <v>0.3351893866393056</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.3033210865613482</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>3788</v>
+        <v>3804</v>
       </c>
       <c r="B168" t="n">
-        <v>0.3311868603988681</v>
+        <v>0.346400761744757</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.3099212327519957</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>3776</v>
+        <v>3803</v>
       </c>
       <c r="B169" t="n">
-        <v>0.3157370254419769</v>
+        <v>0.3562200887509438</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.3224465356508631</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>3775</v>
+        <v>3796</v>
       </c>
       <c r="B170" t="n">
-        <v>0.3785638573000745</v>
+        <v>0.3550132248431289</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.329090175292215</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>3648</v>
+        <v>3788</v>
       </c>
       <c r="B171" t="n">
-        <v>0.3264770960265778</v>
+        <v>0.3311868603988681</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.2011607943873256</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>3644</v>
+        <v>3776</v>
       </c>
       <c r="B172" t="n">
-        <v>0.3177337362700959</v>
+        <v>0.3157349400799503</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.2379084659775748</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>3628</v>
+        <v>3775</v>
       </c>
       <c r="B173" t="n">
-        <v>0.3333231848587488</v>
+        <v>0.3785638573000745</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.3722786202206837</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>3627</v>
+        <v>3482</v>
       </c>
       <c r="B174" t="n">
-        <v>0.319781201235415</v>
+        <v>0.3788000915182596</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.105140852731135</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>3613</v>
+        <v>3478</v>
       </c>
       <c r="B175" t="n">
-        <v>0.3337732706094326</v>
+        <v>0.3463167882491873</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.3150574974375695</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>3612</v>
+        <v>3477</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3471622800084511</v>
+        <v>0.3173141339099041</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.174759684264976</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3611</v>
+        <v>3476</v>
       </c>
       <c r="B177" t="n">
-        <v>0.3299664090214289</v>
+        <v>0.3239194490827544</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.2366356052348776</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>3610</v>
+        <v>3471</v>
       </c>
       <c r="B178" t="n">
-        <v>0.3466236805645792</v>
+        <v>0.3473861484214451</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.275602786817295</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>3609</v>
+        <v>3470</v>
       </c>
       <c r="B179" t="n">
-        <v>0.3202376350301638</v>
+        <v>0.3183466878883562</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.3037571114395342</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>3602</v>
+        <v>3468</v>
       </c>
       <c r="B180" t="n">
-        <v>0.3724351598274392</v>
+        <v>0.3595554649350595</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.2762529524384591</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3601</v>
+        <v>3466</v>
       </c>
       <c r="B181" t="n">
-        <v>0.3930283926138374</v>
+        <v>0.3696770672025457</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.3246495657360036</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>3576</v>
+        <v>3464</v>
       </c>
       <c r="B182" t="n">
-        <v>0.3241635021032147</v>
+        <v>0.3439715115800025</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.2890012464947825</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3574</v>
+        <v>3461</v>
       </c>
       <c r="B183" t="n">
-        <v>0.3355392031529266</v>
+        <v>0.3141363665795232</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.2004691895857361</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>3561</v>
+        <v>3460</v>
       </c>
       <c r="B184" t="n">
-        <v>0.3394784204430786</v>
+        <v>0.3590897018235045</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.3157568503155984</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>3559</v>
+        <v>3459</v>
       </c>
       <c r="B185" t="n">
-        <v>0.2947762772317332</v>
+        <v>0.3452752511332493</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.2686205275218253</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>3549</v>
+        <v>3457</v>
       </c>
       <c r="B186" t="n">
-        <v>0.3816382044537155</v>
+        <v>0.3439593117640826</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.2789570630358288</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>3527</v>
+        <v>3455</v>
       </c>
       <c r="B187" t="n">
-        <v>0.2854678166174633</v>
+        <v>0.3416131792439537</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.230137892046572</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3526</v>
+        <v>3454</v>
       </c>
       <c r="B188" t="n">
-        <v>0.3413552213089466</v>
+        <v>0.3481527007445102</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.2654220996144586</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3524</v>
+        <v>3453</v>
       </c>
       <c r="B189" t="n">
-        <v>0.3661740788154466</v>
+        <v>0.3410247698752507</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.2626209341146832</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3523</v>
+        <v>3452</v>
       </c>
       <c r="B190" t="n">
-        <v>0.3505621166674832</v>
+        <v>0.3359207112904531</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.2806152422636071</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3508</v>
+        <v>3443</v>
       </c>
       <c r="B191" t="n">
-        <v>0.34767699416175</v>
+        <v>0.3454281931719376</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.2842369147915601</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3507</v>
+        <v>3442</v>
       </c>
       <c r="B192" t="n">
-        <v>0.3711394996307803</v>
+        <v>0.3411619870855224</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.22952618053667</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>3506</v>
+        <v>3441</v>
       </c>
       <c r="B193" t="n">
-        <v>0.3600953555197928</v>
+        <v>0.3534346991326879</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.3200110205544648</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3504</v>
+        <v>3440</v>
       </c>
       <c r="B194" t="n">
-        <v>0.3356549641497011</v>
+        <v>0.3400253185320075</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.2389294777571756</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>3503</v>
+        <v>3439</v>
       </c>
       <c r="B195" t="n">
-        <v>0.3045739941034867</v>
+        <v>0.3028310154082388</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.4416912542646565</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3502</v>
+        <v>3438</v>
       </c>
       <c r="B196" t="n">
-        <v>0.3688069140240838</v>
+        <v>0.3464216210844157</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.2744328258387116</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>3500</v>
+        <v>3436</v>
       </c>
       <c r="B197" t="n">
-        <v>0.3502744842693829</v>
+        <v>0.4113426134828546</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.2449328986684657</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3497</v>
+        <v>3407</v>
       </c>
       <c r="B198" t="n">
-        <v>0.3169299715559702</v>
+        <v>0.3581238691613845</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.3351244768862786</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>3494</v>
+        <v>3406</v>
       </c>
       <c r="B199" t="n">
-        <v>0.353472056360287</v>
+        <v>0.3561788757816983</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.3085080452682875</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3493</v>
+        <v>3405</v>
       </c>
       <c r="B200" t="n">
-        <v>0.3006005802340934</v>
+        <v>0.4146261645740861</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.4301260450983243</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3492</v>
+        <v>3403</v>
       </c>
       <c r="B201" t="n">
-        <v>0.3482853827760072</v>
+        <v>0.3829172406302649</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.3525224752334652</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>3491</v>
+        <v>3399</v>
       </c>
       <c r="B202" t="n">
-        <v>0.3500693218417463</v>
+        <v>0.3585510975046298</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.1774403047087801</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>3490</v>
+        <v>3396</v>
       </c>
       <c r="B203" t="n">
-        <v>0.365966610174509</v>
+        <v>0.4196434762073349</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.2747631885315102</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>3489</v>
+        <v>3393</v>
       </c>
       <c r="B204" t="n">
-        <v>0.3169284325511401</v>
+        <v>0.3677730992912497</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.3874317543304548</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>3485</v>
+        <v>3344</v>
       </c>
       <c r="B205" t="n">
-        <v>0.3516175932284842</v>
+        <v>1.13048469588356</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.2290087478091894</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>3484</v>
+        <v>3317</v>
       </c>
       <c r="B206" t="n">
-        <v>0.3543375939728089</v>
+        <v>0.3270102667595772</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.2291112438895646</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3483</v>
+        <v>3298</v>
       </c>
       <c r="B207" t="n">
-        <v>0.2719167096082342</v>
+        <v>0.3400526178958933</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.2296038024555025</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>3482</v>
+        <v>3297</v>
       </c>
       <c r="B208" t="n">
-        <v>0.3787999705054591</v>
+        <v>0.3852666459601961</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.3110608068603325</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3478</v>
+        <v>3295</v>
       </c>
       <c r="B209" t="n">
-        <v>0.3461040082531338</v>
+        <v>0.3758309320144183</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.3162433427089613</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>3477</v>
+        <v>3287</v>
       </c>
       <c r="B210" t="n">
-        <v>0.2706638399993287</v>
+        <v>0.3602888256018746</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.2309367263947615</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3476</v>
+        <v>3285</v>
       </c>
       <c r="B211" t="n">
-        <v>0.323939677015166</v>
+        <v>0.5033712206198688</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.138862654489213</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3471</v>
+        <v>3280</v>
       </c>
       <c r="B212" t="n">
-        <v>0.3473792892572022</v>
+        <v>0.3960528565444779</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.2783369511710106</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>3470</v>
+        <v>3264</v>
       </c>
       <c r="B213" t="n">
-        <v>0.3183466878883562</v>
+        <v>0.320916152937691</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.2909692969944397</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3468</v>
+        <v>3250</v>
       </c>
       <c r="B214" t="n">
-        <v>0.3595275393637903</v>
+        <v>0.808677160937056</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.2913711096697081</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>3466</v>
+        <v>3236</v>
       </c>
       <c r="B215" t="n">
-        <v>0.3696707336870355</v>
+        <v>0.3012466159877811</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.207615274149739</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3464</v>
+        <v>3181</v>
       </c>
       <c r="B216" t="n">
-        <v>0.336546922298123</v>
+        <v>0.364365480185362</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.2015249353796709</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>3461</v>
+        <v>3179</v>
       </c>
       <c r="B217" t="n">
-        <v>0.3136745924170373</v>
+        <v>0.4831362689048103</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.4915069263204878</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>3460</v>
+        <v>3178</v>
       </c>
       <c r="B218" t="n">
-        <v>0.3590864139760852</v>
+        <v>0.365995865966365</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.2555907889644236</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>3459</v>
+        <v>3176</v>
       </c>
       <c r="B219" t="n">
-        <v>0.3452752511332493</v>
+        <v>0.3513573023246122</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.1605914906998037</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3457</v>
+        <v>3169</v>
       </c>
       <c r="B220" t="n">
-        <v>0.3439593117640826</v>
+        <v>0.3070209647197794</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.1964262919653437</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>3455</v>
+        <v>3161</v>
       </c>
       <c r="B221" t="n">
-        <v>0.3415618350334867</v>
+        <v>0.392913072981134</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.2342927992292166</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3454</v>
+        <v>3160</v>
       </c>
       <c r="B222" t="n">
-        <v>0.3481530559233685</v>
+        <v>0.3314753401793147</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.2498821245081224</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3453</v>
+        <v>3159</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3410212579052564</v>
+        <v>0.2895780652852215</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.2022833741246539</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>3452</v>
+        <v>3149</v>
       </c>
       <c r="B224" t="n">
-        <v>0.3359207112904531</v>
+        <v>0.3688843518641761</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.3205440669480992</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3443</v>
+        <v>3140</v>
       </c>
       <c r="B225" t="n">
-        <v>0.3454333638962364</v>
+        <v>0.3844814015619309</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.3720270878743055</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>3442</v>
+        <v>3138</v>
       </c>
       <c r="B226" t="n">
-        <v>0.3411549835038324</v>
+        <v>0.3171707208762809</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.267708740700712</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3441</v>
+        <v>3136</v>
       </c>
       <c r="B227" t="n">
-        <v>0.3534346991326879</v>
+        <v>0.3925423990848667</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.3835386883819115</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>3440</v>
+        <v>3132</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3400642892301332</v>
+        <v>0.3030186628000466</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.297691591573635</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>3439</v>
+        <v>3131</v>
       </c>
       <c r="B229" t="n">
-        <v>0.3028308067090978</v>
+        <v>0.3501280004821255</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.3540623122921412</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>3438</v>
+        <v>3130</v>
       </c>
       <c r="B230" t="n">
-        <v>0.346424987298128</v>
+        <v>0.330393545433167</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.2262696469986076</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>3436</v>
+        <v>3122</v>
       </c>
       <c r="B231" t="n">
-        <v>0.4116641075725431</v>
+        <v>0.3558538809322628</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.3584305068727186</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>3407</v>
+        <v>3118</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3581238691613845</v>
+        <v>0.3491620126048637</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.2460460330738294</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>3406</v>
+        <v>3115</v>
       </c>
       <c r="B233" t="n">
-        <v>0.3561788757816983</v>
+        <v>0.3422564847366946</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.2737588046309797</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>3405</v>
+        <v>3113</v>
       </c>
       <c r="B234" t="n">
-        <v>0.4146261645740861</v>
+        <v>0.3694329381699957</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.2367191645811943</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>3403</v>
+        <v>3098</v>
       </c>
       <c r="B235" t="n">
-        <v>0.3829172406302649</v>
+        <v>0.2796806623021343</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.2532321924782568</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3399</v>
+        <v>3008</v>
       </c>
       <c r="B236" t="n">
-        <v>0.3585504622070083</v>
+        <v>0.3516134087034271</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.3236335694116244</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>3396</v>
+        <v>2965</v>
       </c>
       <c r="B237" t="n">
-        <v>0.4197807095976901</v>
+        <v>0.3229617911521209</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.2629284739390336</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>3393</v>
+        <v>2963</v>
       </c>
       <c r="B238" t="n">
-        <v>0.3677730992912497</v>
+        <v>0.3339544903493974</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.3084380261928486</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3344</v>
+        <v>2956</v>
       </c>
       <c r="B239" t="n">
-        <v>0.7309157052814796</v>
+        <v>0.4071403276438196</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.3893293149448253</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>3334</v>
+        <v>2953</v>
       </c>
       <c r="B240" t="n">
-        <v>0.2722729305097111</v>
+        <v>0.9009819223234349</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.3173459826833148</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>3317</v>
+        <v>2952</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3270061848302692</v>
+        <v>0.3331255087314041</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.2551531041060222</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>3298</v>
+        <v>2951</v>
       </c>
       <c r="B242" t="n">
-        <v>0.3400641057827761</v>
+        <v>0.3459858033760103</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.3059244891415064</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>3297</v>
+        <v>2917</v>
       </c>
       <c r="B243" t="n">
-        <v>0.3852668906975292</v>
+        <v>0.2803981386138941</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.1946681048349612</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>3295</v>
+        <v>2878</v>
       </c>
       <c r="B244" t="n">
-        <v>0.3758343253272717</v>
+        <v>0.4012503673597215</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.3990153187237633</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>3287</v>
+        <v>2876</v>
       </c>
       <c r="B245" t="n">
-        <v>0.3602888187366508</v>
+        <v>0.3812830109243267</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.3846046006659951</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>3285</v>
+        <v>2872</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3224184511157563</v>
+        <v>0.3798623539058609</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.293243094006304</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>3280</v>
+        <v>2866</v>
       </c>
       <c r="B247" t="n">
-        <v>0.3960515321479439</v>
+        <v>0.3449650318621703</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3408327767454987</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3264</v>
+        <v>2861</v>
       </c>
       <c r="B248" t="n">
-        <v>0.320916152937691</v>
+        <v>0.4114332367742098</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.3336675117007165</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>3250</v>
+        <v>2857</v>
       </c>
       <c r="B249" t="n">
-        <v>0.4108633070800726</v>
+        <v>0.4706549379712101</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.2326133405680273</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>3236</v>
+        <v>2850</v>
       </c>
       <c r="B250" t="n">
-        <v>0.3012466159877811</v>
+        <v>0.3611799777081723</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.3596897964221061</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>3181</v>
+        <v>2848</v>
       </c>
       <c r="B251" t="n">
-        <v>0.3643615724710745</v>
+        <v>0.3363821759258007</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.2826012644668112</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>3179</v>
+        <v>2847</v>
       </c>
       <c r="B252" t="n">
-        <v>0.4831362689048103</v>
+        <v>1.319875677807499</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.2574633090620554</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>3178</v>
+        <v>2843</v>
       </c>
       <c r="B253" t="n">
-        <v>0.3660011306007064</v>
+        <v>0.298372742421231</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.1701969306396095</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>3176</v>
+        <v>2840</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3513607148231322</v>
+        <v>0.3414726409556855</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.3573263039911119</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>3169</v>
+        <v>2838</v>
       </c>
       <c r="B255" t="n">
-        <v>0.3070209647197794</v>
+        <v>0.4178710171498514</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.1979479352797673</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>3161</v>
+        <v>2837</v>
       </c>
       <c r="B256" t="n">
-        <v>0.3929369546224279</v>
+        <v>0.3370466747437583</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.2897115384517124</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>3160</v>
+        <v>2836</v>
       </c>
       <c r="B257" t="n">
-        <v>0.3316095812555138</v>
+        <v>0.3972908335260651</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.1439515371078358</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>3159</v>
+        <v>2835</v>
       </c>
       <c r="B258" t="n">
-        <v>0.2895772236012889</v>
+        <v>0.3385301493057831</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.2539507721917511</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>3149</v>
+        <v>2832</v>
       </c>
       <c r="B259" t="n">
-        <v>0.3688828022673587</v>
+        <v>0.327413259946789</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.08362967634481977</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3148</v>
+        <v>2830</v>
       </c>
       <c r="B260" t="n">
-        <v>0.3182187722693433</v>
+        <v>0.3292675925798504</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.2994441848580784</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>3140</v>
+        <v>2828</v>
       </c>
       <c r="B261" t="n">
-        <v>0.3844814015619309</v>
+        <v>0.3690950594127189</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.3656575141441191</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>3138</v>
+        <v>2824</v>
       </c>
       <c r="B262" t="n">
-        <v>0.3171703813343711</v>
+        <v>0.7922252177451757</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.7333471358928501</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3136</v>
+        <v>2823</v>
       </c>
       <c r="B263" t="n">
-        <v>0.3925423990848667</v>
+        <v>0.3323867047544626</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.3098696638771389</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>3132</v>
+        <v>2817</v>
       </c>
       <c r="B264" t="n">
-        <v>0.2861934893825896</v>
+        <v>0.3243014027318765</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.1280606930010102</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3131</v>
+        <v>2790</v>
       </c>
       <c r="B265" t="n">
-        <v>0.3501280004821255</v>
+        <v>0.3069515140805602</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.141828563997646</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>3130</v>
+        <v>2732</v>
       </c>
       <c r="B266" t="n">
-        <v>0.330385112182461</v>
+        <v>0.3207105877792329</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.3064340639212734</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3122</v>
+        <v>2727</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3558538809322628</v>
+        <v>0.3764240448422351</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.3740974140767389</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3118</v>
+        <v>2723</v>
       </c>
       <c r="B268" t="n">
-        <v>0.3491593473758484</v>
+        <v>0.2980422032374891</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.2612701411205555</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>3115</v>
+        <v>2721</v>
       </c>
       <c r="B269" t="n">
-        <v>0.3422563019154179</v>
+        <v>0.3600480176989294</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.2360150002032515</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>3113</v>
+        <v>2720</v>
       </c>
       <c r="B270" t="n">
-        <v>0.3694322394397543</v>
+        <v>0.3381560172342772</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.2975200313484345</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>3098</v>
+        <v>2718</v>
       </c>
       <c r="B271" t="n">
-        <v>0.2796806623021343</v>
+        <v>0.3552000066002828</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.3085406785951245</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3008</v>
+        <v>2716</v>
       </c>
       <c r="B272" t="n">
-        <v>0.3516130974238783</v>
+        <v>0.382441529773791</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.2909006348675303</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>3006</v>
+        <v>2713</v>
       </c>
       <c r="B273" t="n">
-        <v>0.3157283575173299</v>
+        <v>0.3529121902736329</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.26928769869721</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2965</v>
+        <v>2712</v>
       </c>
       <c r="B274" t="n">
-        <v>0.3229617911521209</v>
+        <v>0.1902661802341775</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.08573375647534667</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2963</v>
+        <v>2709</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3339544903493974</v>
+        <v>0.3323623746997972</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.2761548340079794</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2956</v>
+        <v>2706</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4026595024196957</v>
+        <v>0.3337725230847353</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.3259500907573477</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2953</v>
+        <v>2642</v>
       </c>
       <c r="B277" t="n">
-        <v>0.4642589631689804</v>
+        <v>0.3640591803609854</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.3379800412317263</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2952</v>
+        <v>2640</v>
       </c>
       <c r="B278" t="n">
-        <v>0.3331255087314041</v>
+        <v>0.3565231652699747</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.277288024997987</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2951</v>
+        <v>2629</v>
       </c>
       <c r="B279" t="n">
-        <v>0.3459473693667106</v>
+        <v>0.3168451051293859</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.2917625512488863</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2917</v>
+        <v>2625</v>
       </c>
       <c r="B280" t="n">
-        <v>0.2804070038668058</v>
+        <v>0.2846509561989057</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.204411689007613</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2878</v>
+        <v>2594</v>
       </c>
       <c r="B281" t="n">
-        <v>0.4012503673597215</v>
+        <v>0.3028018667893442</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.236472698931285</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2876</v>
+        <v>2554</v>
       </c>
       <c r="B282" t="n">
-        <v>0.3812830109243267</v>
+        <v>0.3344333145860519</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.3231068612789007</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2872</v>
+        <v>2549</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3798623539058609</v>
+        <v>0.3021195054836218</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.2841261115032571</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2866</v>
+        <v>2539</v>
       </c>
       <c r="B284" t="n">
-        <v>0.3449650318621703</v>
+        <v>0.2993695621137027</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.2279609788840205</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2861</v>
+        <v>2527</v>
       </c>
       <c r="B285" t="n">
-        <v>0.4113767143092834</v>
+        <v>0.7427164408073301</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.0734213726488689</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2857</v>
+        <v>2526</v>
       </c>
       <c r="B286" t="n">
-        <v>0.3309509423152466</v>
+        <v>0.2466132312236883</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.0629357849027907</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2850</v>
+        <v>2517</v>
       </c>
       <c r="B287" t="n">
-        <v>0.3611799777081723</v>
+        <v>0.3625175659748985</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.2609532297347454</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2848</v>
+        <v>2516</v>
       </c>
       <c r="B288" t="n">
-        <v>0.3362697726960541</v>
+        <v>0.3406057710175968</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.3208772188916473</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2847</v>
+        <v>2514</v>
       </c>
       <c r="B289" t="n">
-        <v>0.312379274443605</v>
+        <v>0.3652455230319288</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.2630149927864065</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2843</v>
+        <v>2513</v>
       </c>
       <c r="B290" t="n">
-        <v>0.2983592100231161</v>
+        <v>0.3404091455043374</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.3005223915743763</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2840</v>
+        <v>2511</v>
       </c>
       <c r="B291" t="n">
-        <v>0.3414726409556855</v>
+        <v>0.343969332728244</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.2977583875319704</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2838</v>
+        <v>2500</v>
       </c>
       <c r="B292" t="n">
-        <v>0.3138865957388574</v>
+        <v>0.3018820929535959</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.2680812613530327</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2837</v>
+        <v>2493</v>
       </c>
       <c r="B293" t="n">
-        <v>0.3370466747437583</v>
+        <v>0.7601247616983172</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.4065450932514708</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2836</v>
+        <v>2491</v>
       </c>
       <c r="B294" t="n">
-        <v>0.3329795077525803</v>
+        <v>0.3505623844594139</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.1836028753508985</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2835</v>
+        <v>2480</v>
       </c>
       <c r="B295" t="n">
-        <v>0.3308596474973688</v>
+        <v>0.360559047090839</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.2921881716101721</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2832</v>
+        <v>2454</v>
       </c>
       <c r="B296" t="n">
-        <v>0.327413259946789</v>
+        <v>0.4285568645618485</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.3138443066359783</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2830</v>
+        <v>2451</v>
       </c>
       <c r="B297" t="n">
-        <v>0.3292675925798504</v>
+        <v>0.348044218745353</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.315576551158707</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2828</v>
+        <v>2450</v>
       </c>
       <c r="B298" t="n">
-        <v>0.3690950594127189</v>
+        <v>0.3252216711339625</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.221412253397987</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2823</v>
+        <v>2446</v>
       </c>
       <c r="B299" t="n">
-        <v>0.3324006212935429</v>
+        <v>0.3058543542808606</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.1793675181938796</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2817</v>
+        <v>2444</v>
       </c>
       <c r="B300" t="n">
-        <v>0.3242947129250499</v>
+        <v>0.4151896008990336</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.2988887401796859</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2790</v>
+        <v>2442</v>
       </c>
       <c r="B301" t="n">
-        <v>0.3069527956114261</v>
+        <v>0.330985760037895</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.3309586411842686</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2732</v>
+        <v>2411</v>
       </c>
       <c r="B302" t="n">
-        <v>0.3207072528115208</v>
+        <v>0.3525303700781134</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.2355685848788551</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2727</v>
+        <v>2408</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3764240448422351</v>
+        <v>0.3629761143021682</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.2861970923617935</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2723</v>
+        <v>2406</v>
       </c>
       <c r="B304" t="n">
-        <v>0.2980422032374891</v>
+        <v>0.2782226121122625</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.2480774132529298</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2721</v>
+        <v>2404</v>
       </c>
       <c r="B305" t="n">
-        <v>0.3600480176989294</v>
+        <v>0.4706747930210146</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.2960786948569227</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2720</v>
+        <v>2403</v>
       </c>
       <c r="B306" t="n">
-        <v>0.3381560172342772</v>
+        <v>0.3679649053651981</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.1489947204633321</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2718</v>
+        <v>2390</v>
       </c>
       <c r="B307" t="n">
-        <v>0.3552000066002828</v>
+        <v>0.624512697206123</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.3260868020850131</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2716</v>
+        <v>2384</v>
       </c>
       <c r="B308" t="n">
-        <v>0.303338285074871</v>
+        <v>0.5184792952394202</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.2852259497673701</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2713</v>
+        <v>2378</v>
       </c>
       <c r="B309" t="n">
-        <v>0.3529308259600151</v>
+        <v>0.4003161841363538</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.232596234293905</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2712</v>
+        <v>2367</v>
       </c>
       <c r="B310" t="n">
-        <v>0.1902661802341775</v>
+        <v>0.2903355689253306</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.2160362929650239</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2709</v>
+        <v>2364</v>
       </c>
       <c r="B311" t="n">
-        <v>0.3323597552856097</v>
+        <v>0.3590608615148212</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.3361076932592549</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2706</v>
+        <v>2341</v>
       </c>
       <c r="B312" t="n">
-        <v>0.3337725230847353</v>
+        <v>0.3570315554428347</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.3030806289755137</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2642</v>
+        <v>2336</v>
       </c>
       <c r="B313" t="n">
-        <v>0.3640591803609854</v>
+        <v>0.4007012345748426</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.3309475495305269</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2640</v>
+        <v>2330</v>
       </c>
       <c r="B314" t="n">
-        <v>0.3565243901113682</v>
+        <v>0.355506926239324</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.2599489098678328</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2629</v>
+        <v>2326</v>
       </c>
       <c r="B315" t="n">
-        <v>0.3168321917703845</v>
+        <v>0.3813947253667739</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.3364236173963436</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2625</v>
+        <v>2324</v>
       </c>
       <c r="B316" t="n">
-        <v>0.2846512391700943</v>
+        <v>0.4467817029755624</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.321452433268165</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2594</v>
+        <v>2292</v>
       </c>
       <c r="B317" t="n">
-        <v>0.3030050168047432</v>
+        <v>0.317724380960366</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.1880222459119224</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2554</v>
+        <v>2291</v>
       </c>
       <c r="B318" t="n">
-        <v>0.3344333145860519</v>
+        <v>0.3051836088704225</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.260358243103296</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2549</v>
+        <v>2277</v>
       </c>
       <c r="B319" t="n">
-        <v>0.3021195054836218</v>
+        <v>0.3114119999240743</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.1624011808719644</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2539</v>
+        <v>2241</v>
       </c>
       <c r="B320" t="n">
-        <v>0.2993719337962104</v>
+        <v>0.3056874815452611</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.2208718662799828</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2535</v>
+        <v>2240</v>
       </c>
       <c r="B321" t="n">
-        <v>0.3431187103696282</v>
+        <v>0.2963204414972197</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.212097759212218</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2527</v>
+        <v>2226</v>
       </c>
       <c r="B322" t="n">
-        <v>0.3324659750216672</v>
+        <v>0.3031776551945367</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.1210020266059394</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2526</v>
+        <v>2187</v>
       </c>
       <c r="B323" t="n">
-        <v>0.2466132312236883</v>
+        <v>0.3242990299663067</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.1479345534779234</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2517</v>
+        <v>2169</v>
       </c>
       <c r="B324" t="n">
-        <v>0.3625212011333935</v>
+        <v>0.314586510366249</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.15943207305156</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2516</v>
+        <v>2168</v>
       </c>
       <c r="B325" t="n">
-        <v>0.3406057710175968</v>
+        <v>0.319058634879784</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.3154666517686503</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2514</v>
+        <v>2167</v>
       </c>
       <c r="B326" t="n">
-        <v>0.3311476751357421</v>
+        <v>0.3259543914115755</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.3101950654838129</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2513</v>
+        <v>2161</v>
       </c>
       <c r="B327" t="n">
-        <v>0.3403970317366394</v>
+        <v>0.316294144677143</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.2697120401097703</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2511</v>
+        <v>2132</v>
       </c>
       <c r="B328" t="n">
-        <v>0.3439657380125375</v>
+        <v>0.3147465754961913</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.2390314127181674</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2500</v>
+        <v>2123</v>
       </c>
       <c r="B329" t="n">
-        <v>0.3018582095994737</v>
+        <v>0.7759431919329494</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.5113165673419049</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2491</v>
+        <v>2107</v>
       </c>
       <c r="B330" t="n">
-        <v>0.3505663519064199</v>
+        <v>0.3469107196909405</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.1814350561237791</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2480</v>
+        <v>2104</v>
       </c>
       <c r="B331" t="n">
-        <v>0.3605590470908411</v>
+        <v>0.3332536400586381</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.3030400846272338</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2454</v>
+        <v>2103</v>
       </c>
       <c r="B332" t="n">
-        <v>0.4285499144845763</v>
+        <v>0.3199446531535927</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.3199219506221103</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2451</v>
+        <v>2098</v>
       </c>
       <c r="B333" t="n">
-        <v>0.348044218745353</v>
+        <v>0.2952825029617676</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.2783453834619164</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2450</v>
+        <v>2094</v>
       </c>
       <c r="B334" t="n">
-        <v>0.3250396411479219</v>
+        <v>0.3619847165370315</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.3149203457769068</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2446</v>
+        <v>2080</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3058570846987244</v>
+        <v>0.2894560082590814</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.2147786363090443</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2444</v>
+        <v>2079</v>
       </c>
       <c r="B336" t="n">
-        <v>0.3344329286327952</v>
+        <v>0.3997336466102028</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.304147040749655</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2442</v>
+        <v>2076</v>
       </c>
       <c r="B337" t="n">
-        <v>0.330985760037895</v>
+        <v>0.3721524404857305</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.1894366722598177</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2411</v>
+        <v>2070</v>
       </c>
       <c r="B338" t="n">
-        <v>0.2905817441648096</v>
+        <v>0.2985657148956363</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.2553694261900192</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2408</v>
+        <v>2053</v>
       </c>
       <c r="B339" t="n">
-        <v>0.3629710096729346</v>
+        <v>0.2297604319504221</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.1780876785058593</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2406</v>
+        <v>2051</v>
       </c>
       <c r="B340" t="n">
-        <v>0.2796549718009562</v>
+        <v>0.2687905062515074</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.1402769008281746</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2404</v>
+        <v>2050</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3431379663760209</v>
+        <v>0.3537251489696671</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.1907504887487756</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2403</v>
+        <v>2049</v>
       </c>
       <c r="B342" t="n">
-        <v>0.3679641796685496</v>
+        <v>0.342708458581732</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.2590182191636787</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2390</v>
+        <v>2048</v>
       </c>
       <c r="B343" t="n">
-        <v>0.4154616271308895</v>
+        <v>0.4793989412462534</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.2356552609216791</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2384</v>
+        <v>2047</v>
       </c>
       <c r="B344" t="n">
-        <v>0.3112267222325037</v>
+        <v>0.3677874655763759</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.09891639447712515</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2378</v>
+        <v>2008</v>
       </c>
       <c r="B345" t="n">
-        <v>0.4002997332328657</v>
+        <v>0.3146182534257375</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.187420679868483</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2367</v>
+        <v>1961</v>
       </c>
       <c r="B346" t="n">
-        <v>0.2903515694134434</v>
+        <v>0.3609142713644405</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.1130762421580268</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2364</v>
+        <v>1927</v>
       </c>
       <c r="B347" t="n">
-        <v>0.3590608615148212</v>
+        <v>0.3285340719641414</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.1121100623858184</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2341</v>
+        <v>1918</v>
       </c>
       <c r="B348" t="n">
-        <v>0.3570369744261099</v>
+        <v>0.3904520385374332</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.2922730506692295</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2336</v>
+        <v>1915</v>
       </c>
       <c r="B349" t="n">
-        <v>0.4007012345748426</v>
+        <v>0.3701037161091284</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.1851494541856503</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2330</v>
+        <v>1912</v>
       </c>
       <c r="B350" t="n">
-        <v>0.3555070048218507</v>
+        <v>0.3037262165274855</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.1915142621918246</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2326</v>
+        <v>1904</v>
       </c>
       <c r="B351" t="n">
-        <v>0.3609760680531342</v>
+        <v>0.3077762239263275</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.2199696057870221</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2324</v>
+        <v>1893</v>
       </c>
       <c r="B352" t="n">
-        <v>0.4467817029755624</v>
+        <v>0.2633790881089151</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.0857397380860403</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2292</v>
+        <v>1891</v>
       </c>
       <c r="B353" t="n">
-        <v>0.3177243809603657</v>
+        <v>0.2755547916004906</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.2537101325259738</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2291</v>
+        <v>1888</v>
       </c>
       <c r="B354" t="n">
-        <v>0.3051836088704225</v>
+        <v>0.3383696753821989</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.200873627862563</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2277</v>
+        <v>1843</v>
       </c>
       <c r="B355" t="n">
-        <v>0.3114050717234077</v>
+        <v>0.2867987819412896</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.1595972640660928</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2241</v>
+        <v>1832</v>
       </c>
       <c r="B356" t="n">
-        <v>0.3054680630967008</v>
+        <v>0.4910146748812746</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.3665048021816962</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2240</v>
+        <v>1831</v>
       </c>
       <c r="B357" t="n">
-        <v>0.2963208475680734</v>
+        <v>0.3661542664828065</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.2546939469619658</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2226</v>
+        <v>1830</v>
       </c>
       <c r="B358" t="n">
-        <v>0.3031807772891991</v>
+        <v>0.2707943691777937</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.2294565648522885</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2187</v>
+        <v>1825</v>
       </c>
       <c r="B359" t="n">
-        <v>0.3242766851739923</v>
+        <v>0.352446564348711</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.2981480113986374</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2169</v>
+        <v>1769</v>
       </c>
       <c r="B360" t="n">
-        <v>0.3145857824622176</v>
+        <v>0.3075264678015821</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.2973079817788461</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2168</v>
+        <v>1745</v>
       </c>
       <c r="B361" t="n">
-        <v>0.319058634879784</v>
+        <v>0.6595463306343847</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6619126311811887</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2167</v>
+        <v>1743</v>
       </c>
       <c r="B362" t="n">
-        <v>0.3259533965420759</v>
+        <v>0.3592190794253411</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.2942214051672704</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2161</v>
+        <v>1740</v>
       </c>
       <c r="B363" t="n">
-        <v>0.316294144677143</v>
+        <v>0.785179839847934</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.7871011013991638</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2132</v>
+        <v>1733</v>
       </c>
       <c r="B364" t="n">
-        <v>0.3147165195745452</v>
+        <v>0.3532983591301786</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.3408439416356165</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2107</v>
+        <v>1732</v>
       </c>
       <c r="B365" t="n">
-        <v>0.3469052257579891</v>
+        <v>0.23235209535396</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.2229772619193893</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2104</v>
+        <v>1731</v>
       </c>
       <c r="B366" t="n">
-        <v>0.3332296582638554</v>
+        <v>0.4069392199671123</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.1713624553772397</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2103</v>
+        <v>1726</v>
       </c>
       <c r="B367" t="n">
-        <v>0.3199446531535927</v>
+        <v>0.2766836843922336</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.02840172369349948</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2098</v>
+        <v>1723</v>
       </c>
       <c r="B368" t="n">
-        <v>0.2952934611151899</v>
+        <v>0.3391997671012868</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.3097542107040254</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2094</v>
+        <v>1720</v>
       </c>
       <c r="B369" t="n">
-        <v>0.3619847165370315</v>
+        <v>0.4013920815238093</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.3013874371840243</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2080</v>
+        <v>1710</v>
       </c>
       <c r="B370" t="n">
-        <v>0.2894559670258871</v>
+        <v>0.33741206618959</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.3387254935298077</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2079</v>
+        <v>1702</v>
       </c>
       <c r="B371" t="n">
-        <v>0.3535579078509289</v>
+        <v>0.3390952738815207</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.3391669214497567</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2076</v>
+        <v>1695</v>
       </c>
       <c r="B372" t="n">
-        <v>0.3720935669597821</v>
+        <v>0.3159119549449837</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.2520695884319835</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2070</v>
+        <v>1682</v>
       </c>
       <c r="B373" t="n">
-        <v>0.2985641210312077</v>
+        <v>0.3293071372880015</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.1616594113348287</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2053</v>
+        <v>1642</v>
       </c>
       <c r="B374" t="n">
-        <v>0.2297417797231212</v>
+        <v>0.290079645621459</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.1914539653433675</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2051</v>
+        <v>1626</v>
       </c>
       <c r="B375" t="n">
-        <v>0.2687905062515074</v>
+        <v>0.3101334024959608</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.255762008901475</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2050</v>
+        <v>1619</v>
       </c>
       <c r="B376" t="n">
-        <v>0.3537236058640943</v>
+        <v>0.3710699410404846</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.3600296817437337</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>2049</v>
+        <v>1606</v>
       </c>
       <c r="B377" t="n">
-        <v>0.342708458581732</v>
+        <v>0.3828143426819647</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.2620440852086962</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>2048</v>
+        <v>1599</v>
       </c>
       <c r="B378" t="n">
-        <v>0.4793990042638403</v>
+        <v>0.3077690236782731</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.1748486791199143</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2047</v>
+        <v>1589</v>
       </c>
       <c r="B379" t="n">
-        <v>0.2873970834829569</v>
+        <v>0.3530601999433252</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.1757484510726971</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2008</v>
+        <v>1588</v>
       </c>
       <c r="B380" t="n">
-        <v>0.2968642694534102</v>
+        <v>0.3467786853305626</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.2920766980027546</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1961</v>
+        <v>1573</v>
       </c>
       <c r="B381" t="n">
-        <v>0.3609222356925603</v>
+        <v>0.3663276539711392</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.2089956839738266</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1927</v>
+        <v>1572</v>
       </c>
       <c r="B382" t="n">
-        <v>0.328516518831778</v>
+        <v>0.4210992677622559</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.4203064552033066</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1918</v>
+        <v>1571</v>
       </c>
       <c r="B383" t="n">
-        <v>0.3902632943333993</v>
+        <v>0.3226498813809824</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.3086384384486366</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1915</v>
+        <v>1570</v>
       </c>
       <c r="B384" t="n">
-        <v>0.3701037161091284</v>
+        <v>0.3327334238347343</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.2658123732459934</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1912</v>
+        <v>1559</v>
       </c>
       <c r="B385" t="n">
-        <v>0.303727688287823</v>
+        <v>0.3610538628994493</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.3290895038806619</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1904</v>
+        <v>1556</v>
       </c>
       <c r="B386" t="n">
-        <v>0.3077762239263275</v>
+        <v>0.4931119908411651</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.1467916034069109</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1893</v>
+        <v>1554</v>
       </c>
       <c r="B387" t="n">
-        <v>0.2633754241019658</v>
+        <v>0.3096868954521463</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.2170166933308834</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>1891</v>
+        <v>1553</v>
       </c>
       <c r="B388" t="n">
-        <v>0.2755515368614484</v>
+        <v>0.3601856273679307</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.1577649370845978</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1888</v>
+        <v>1552</v>
       </c>
       <c r="B389" t="n">
-        <v>0.338363420821068</v>
+        <v>0.3943332627903062</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.2269722274668691</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>1843</v>
+        <v>1507</v>
       </c>
       <c r="B390" t="n">
-        <v>0.2868018570560697</v>
+        <v>0.3253019065769294</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.2385629836917018</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1832</v>
+        <v>1496</v>
       </c>
       <c r="B391" t="n">
-        <v>0.4215035267537615</v>
+        <v>0.3020704208694652</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.1895508305767762</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>1831</v>
+        <v>1464</v>
       </c>
       <c r="B392" t="n">
-        <v>0.3661542664828065</v>
+        <v>0.345822702309608</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.24237878733503</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1830</v>
+        <v>1458</v>
       </c>
       <c r="B393" t="n">
-        <v>0.2707954261744873</v>
+        <v>0.261187117750567</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.2280833546441359</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1825</v>
+        <v>1450</v>
       </c>
       <c r="B394" t="n">
-        <v>0.352446564348711</v>
+        <v>0.7086318531269677</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5633073890935126</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1769</v>
+        <v>1443</v>
       </c>
       <c r="B395" t="n">
-        <v>0.3075264678015821</v>
+        <v>0.3586118541809467</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.3063948042683443</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>1743</v>
+        <v>1439</v>
       </c>
       <c r="B396" t="n">
-        <v>0.3592190794253411</v>
+        <v>0.275860566916647</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.248612919273062</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1733</v>
+        <v>1417</v>
       </c>
       <c r="B397" t="n">
-        <v>0.3532983591301786</v>
+        <v>0.3519256888200036</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.303540814883055</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>1731</v>
+        <v>1416</v>
       </c>
       <c r="B398" t="n">
-        <v>0.4068585816471044</v>
+        <v>0.3079710028631181</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.1980316892709676</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>1723</v>
+        <v>1409</v>
       </c>
       <c r="B399" t="n">
-        <v>0.3391997671012868</v>
+        <v>0.5581295709648644</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.212592088045282</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1720</v>
+        <v>1404</v>
       </c>
       <c r="B400" t="n">
-        <v>0.3587562746515163</v>
+        <v>0.3735393550033222</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.2631076644545154</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1710</v>
+        <v>1403</v>
       </c>
       <c r="B401" t="n">
-        <v>0.33741206618959</v>
+        <v>0.3757964632125328</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.3389380599778151</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1702</v>
+        <v>1402</v>
       </c>
       <c r="B402" t="n">
-        <v>0.3390950849924991</v>
+        <v>0.3877947944045178</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.3030986983665891</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>1695</v>
+        <v>1400</v>
       </c>
       <c r="B403" t="n">
-        <v>0.3158903813314636</v>
+        <v>0.3729000178531271</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.1560255745750856</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1682</v>
+        <v>1396</v>
       </c>
       <c r="B404" t="n">
-        <v>0.3291738246138461</v>
+        <v>0.3493897749133829</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.2935530075652601</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1642</v>
+        <v>1394</v>
       </c>
       <c r="B405" t="n">
-        <v>0.2889608864051069</v>
+        <v>0.3301770614485864</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.2826550126622555</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1626</v>
+        <v>1393</v>
       </c>
       <c r="B406" t="n">
-        <v>0.3101334024959608</v>
+        <v>0.3164842140842688</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.3224826710156684</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1619</v>
+        <v>1391</v>
       </c>
       <c r="B407" t="n">
-        <v>0.3710726159318757</v>
+        <v>0.5083304213047891</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.4338009460558766</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1613</v>
+        <v>1385</v>
       </c>
       <c r="B408" t="n">
-        <v>0.07102407080999476</v>
+        <v>0.3140046456378564</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.2475716686922579</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1606</v>
+        <v>1384</v>
       </c>
       <c r="B409" t="n">
-        <v>0.3834962815172583</v>
+        <v>0.3523209172841625</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.3516556323730604</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1599</v>
+        <v>1383</v>
       </c>
       <c r="B410" t="n">
-        <v>0.3077620956452281</v>
+        <v>0.311108189664186</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.2232428031106153</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1589</v>
+        <v>1382</v>
       </c>
       <c r="B411" t="n">
-        <v>0.3530438920025415</v>
+        <v>0.326291411215302</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.05100088070236303</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>1588</v>
+        <v>1381</v>
       </c>
       <c r="B412" t="n">
-        <v>0.3467786853305626</v>
+        <v>0.3334525993020644</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.2657439500017345</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1573</v>
+        <v>1379</v>
       </c>
       <c r="B413" t="n">
-        <v>0.3663315312544663</v>
+        <v>0.3095552215068132</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.2972564043603991</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>1572</v>
+        <v>1378</v>
       </c>
       <c r="B414" t="n">
-        <v>0.4210992677622559</v>
+        <v>0.3628972318786358</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.250982069980247</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1571</v>
+        <v>1374</v>
       </c>
       <c r="B415" t="n">
-        <v>0.3226499868315861</v>
+        <v>0.3203907229971525</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.260939712787234</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1570</v>
+        <v>1372</v>
       </c>
       <c r="B416" t="n">
-        <v>0.3327214699729854</v>
+        <v>0.2688128342728588</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.1225152092414818</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1564</v>
+        <v>1364</v>
       </c>
       <c r="B417" t="n">
-        <v>0.2701161024171501</v>
+        <v>0.3594636644066297</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.2461093547489205</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1559</v>
+        <v>1363</v>
       </c>
       <c r="B418" t="n">
-        <v>0.3569347255219587</v>
+        <v>0.3362300186053882</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.2793448216495323</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1556</v>
+        <v>1361</v>
       </c>
       <c r="B419" t="n">
-        <v>0.4931119908411651</v>
+        <v>0.2671730840216448</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.1595252275696226</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>1554</v>
+        <v>1360</v>
       </c>
       <c r="B420" t="n">
-        <v>0.3096856466144758</v>
+        <v>0.2572656970915118</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.0829649859680117</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1553</v>
+        <v>1357</v>
       </c>
       <c r="B421" t="n">
-        <v>0.3141352670844051</v>
+        <v>0.3102071050423801</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.2139758872070148</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1552</v>
+        <v>1356</v>
       </c>
       <c r="B422" t="n">
-        <v>0.3943229930632397</v>
+        <v>0.2742987701922448</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.1229416064111628</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1507</v>
+        <v>1355</v>
       </c>
       <c r="B423" t="n">
-        <v>0.3253017995768284</v>
+        <v>0.3798196927623467</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.3098042408906019</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1496</v>
+        <v>1353</v>
       </c>
       <c r="B424" t="n">
-        <v>0.3009296726645598</v>
+        <v>0.3916044586537609</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.3826730982669233</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1464</v>
+        <v>1305</v>
       </c>
       <c r="B425" t="n">
-        <v>0.3458161555588319</v>
+        <v>0.6358147160057339</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.2619049249846674</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1458</v>
+        <v>1295</v>
       </c>
       <c r="B426" t="n">
-        <v>0.2611912763247717</v>
+        <v>0.4366730871510652</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.3752456856021886</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1443</v>
+        <v>1271</v>
       </c>
       <c r="B427" t="n">
-        <v>0.3585747630544494</v>
+        <v>0.2927784182263445</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.1165878355502575</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1439</v>
+        <v>1252</v>
       </c>
       <c r="B428" t="n">
-        <v>0.2758604464296355</v>
+        <v>0.3041441554847896</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.2461642274986149</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1417</v>
+        <v>1250</v>
       </c>
       <c r="B429" t="n">
-        <v>0.3519248241194722</v>
+        <v>0.3600528046192062</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.2564426990811933</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>1416</v>
+        <v>1248</v>
       </c>
       <c r="B430" t="n">
-        <v>0.3079350760599842</v>
+        <v>0.3179404668385456</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.2798721989140762</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1409</v>
+        <v>1242</v>
       </c>
       <c r="B431" t="n">
-        <v>0.5581325447419165</v>
+        <v>0.3353706194709331</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.2895288769747939</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1404</v>
+        <v>1241</v>
       </c>
       <c r="B432" t="n">
-        <v>0.3735204831519103</v>
+        <v>0.3795097969365872</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.3069466114766479</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1403</v>
+        <v>1240</v>
       </c>
       <c r="B433" t="n">
-        <v>0.3757964632125328</v>
+        <v>0.3597467538529876</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.3082019187529665</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1402</v>
+        <v>1239</v>
       </c>
       <c r="B434" t="n">
-        <v>0.38779632236417</v>
+        <v>0.5412602478570006</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.2533568567171736</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1400</v>
+        <v>1235</v>
       </c>
       <c r="B435" t="n">
-        <v>0.3728925587122632</v>
+        <v>0.3654403515452702</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.3702208296821259</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1396</v>
+        <v>1233</v>
       </c>
       <c r="B436" t="n">
-        <v>0.3479039397784279</v>
+        <v>0.33440211956931</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.2052480428329594</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1394</v>
+        <v>1230</v>
       </c>
       <c r="B437" t="n">
-        <v>0.3301809809664233</v>
+        <v>0.3011790712360578</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.1583906138879016</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1393</v>
+        <v>1218</v>
       </c>
       <c r="B438" t="n">
-        <v>0.3165343861448091</v>
+        <v>0.3491777924109752</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.07892521796466059</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1391</v>
+        <v>1217</v>
       </c>
       <c r="B439" t="n">
-        <v>0.5083304213047891</v>
+        <v>0.3088885042218586</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.1734585336806374</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1385</v>
+        <v>1175</v>
       </c>
       <c r="B440" t="n">
-        <v>0.3140037221718736</v>
+        <v>0.6760904495402947</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.7005304804754591</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1384</v>
+        <v>1167</v>
       </c>
       <c r="B441" t="n">
-        <v>0.3523214202498829</v>
+        <v>0.2911309529737802</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.2542762708944249</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1383</v>
+        <v>1131</v>
       </c>
       <c r="B442" t="n">
-        <v>0.3111479851336684</v>
+        <v>0.2848971891037255</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.2284061645981677</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1382</v>
+        <v>1104</v>
       </c>
       <c r="B443" t="n">
-        <v>0.3262909286527723</v>
+        <v>0.3542895350731824</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.1672354689349557</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1381</v>
+        <v>1091</v>
       </c>
       <c r="B444" t="n">
-        <v>0.3334525993020644</v>
+        <v>0.3198090998183975</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.3198634226450202</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1379</v>
+        <v>1082</v>
       </c>
       <c r="B445" t="n">
-        <v>0.3095552215068132</v>
+        <v>0.3141465013093046</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.2487996340351035</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1378</v>
+        <v>1081</v>
       </c>
       <c r="B446" t="n">
-        <v>0.3628991868213861</v>
+        <v>0.2809218010773476</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.2777578314006212</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1374</v>
+        <v>1073</v>
       </c>
       <c r="B447" t="n">
-        <v>0.3203881043992409</v>
+        <v>0.4841899523067569</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.423989851316383</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1372</v>
+        <v>1048</v>
       </c>
       <c r="B448" t="n">
-        <v>0.2435407528367421</v>
+        <v>0.3715110859027059</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.2902358874791939</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1364</v>
+        <v>1047</v>
       </c>
       <c r="B449" t="n">
-        <v>0.3594639904823091</v>
+        <v>0.3014860088100558</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.1561507579922602</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1363</v>
+        <v>1046</v>
       </c>
       <c r="B450" t="n">
-        <v>0.3224861782367416</v>
+        <v>0.2625219603520982</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.1767880772655732</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1361</v>
+        <v>1043</v>
       </c>
       <c r="B451" t="n">
-        <v>0.2671730840216448</v>
+        <v>0.3679132921487374</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.3397507722665297</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1360</v>
+        <v>1040</v>
       </c>
       <c r="B452" t="n">
-        <v>0.2572652901381862</v>
+        <v>0.2874065835606107</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.1397097985937364</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1357</v>
+        <v>1012</v>
       </c>
       <c r="B453" t="n">
-        <v>0.3102094313923494</v>
+        <v>0.3366596895899422</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.3027673755289956</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1356</v>
+        <v>1010</v>
       </c>
       <c r="B454" t="n">
-        <v>0.2742987701922448</v>
+        <v>0.3378355612232848</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.2939670549757447</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1355</v>
+        <v>1008</v>
       </c>
       <c r="B455" t="n">
-        <v>0.3798196927623467</v>
+        <v>0.3366751244965647</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.3231336703758557</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1353</v>
+        <v>1007</v>
       </c>
       <c r="B456" t="n">
-        <v>0.3916044586537609</v>
+        <v>0.7473973611285679</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.07940888039751741</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1305</v>
+        <v>1004</v>
       </c>
       <c r="B457" t="n">
-        <v>0.2992726336083201</v>
+        <v>0.678397504186073</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.395250700485239</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>1295</v>
+        <v>1001</v>
       </c>
       <c r="B458" t="n">
-        <v>0.4366958181440883</v>
+        <v>0.3445484089752821</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.2025828646861514</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1271</v>
+        <v>997</v>
       </c>
       <c r="B459" t="n">
-        <v>0.2927768565819328</v>
+        <v>0.3722291859683995</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.1382979682133198</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>1252</v>
+        <v>996</v>
       </c>
       <c r="B460" t="n">
-        <v>0.304145438581054</v>
+        <v>0.307147796223862</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.2780027887246678</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1250</v>
+        <v>995</v>
       </c>
       <c r="B461" t="n">
-        <v>0.3600575343671963</v>
+        <v>0.333035763488818</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.380504207358235</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>1248</v>
+        <v>994</v>
       </c>
       <c r="B462" t="n">
-        <v>0.3179407559951679</v>
+        <v>0.34226275781994</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.3464490569437035</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1242</v>
+        <v>991</v>
       </c>
       <c r="B463" t="n">
-        <v>0.335208668476242</v>
+        <v>0.3151406173906218</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.2505609054841209</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1241</v>
+        <v>990</v>
       </c>
       <c r="B464" t="n">
-        <v>0.3795069657567003</v>
+        <v>0.3347676668241278</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.2893480028163383</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1240</v>
+        <v>988</v>
       </c>
       <c r="B465" t="n">
-        <v>0.359742961185662</v>
+        <v>0.3732930025595402</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.268674971057615</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1239</v>
+        <v>983</v>
       </c>
       <c r="B466" t="n">
-        <v>0.3652069587811554</v>
+        <v>0.3732231554663086</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.3641323412935072</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1235</v>
+        <v>981</v>
       </c>
       <c r="B467" t="n">
-        <v>0.3654203037837309</v>
+        <v>0.4356629666174538</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.2924766409221248</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1233</v>
+        <v>976</v>
       </c>
       <c r="B468" t="n">
-        <v>0.3344008141617577</v>
+        <v>0.2995682471679031</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.3587355522949217</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1230</v>
+        <v>964</v>
       </c>
       <c r="B469" t="n">
-        <v>0.301165609040613</v>
+        <v>0.2462992906495796</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.2290160500852358</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1218</v>
+        <v>963</v>
       </c>
       <c r="B470" t="n">
-        <v>0.3491693220639048</v>
+        <v>0.3328831153742769</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.2460301353379806</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1217</v>
+        <v>898</v>
       </c>
       <c r="B471" t="n">
-        <v>0.3088693265546199</v>
+        <v>0.3558624298600718</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.34785618021605</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1167</v>
+        <v>897</v>
       </c>
       <c r="B472" t="n">
-        <v>0.2911309529737802</v>
+        <v>0.392380814386519</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.1908909392692905</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1131</v>
+        <v>892</v>
       </c>
       <c r="B473" t="n">
-        <v>0.2848781263613747</v>
+        <v>0.3459649940868303</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.2076359807043927</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1104</v>
+        <v>891</v>
       </c>
       <c r="B474" t="n">
-        <v>0.3542891780632912</v>
+        <v>0.3427847372047892</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.1912283696244992</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1091</v>
+        <v>889</v>
       </c>
       <c r="B475" t="n">
-        <v>0.3198090998183975</v>
+        <v>0.3464407380551174</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.2442096141265096</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1082</v>
+        <v>887</v>
       </c>
       <c r="B476" t="n">
-        <v>0.3141496118471103</v>
+        <v>0.3155086694576341</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.307201240812038</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1081</v>
+        <v>886</v>
       </c>
       <c r="B477" t="n">
-        <v>0.2808954866033929</v>
+        <v>0.3484303131640533</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.2849579804821409</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1048</v>
+        <v>884</v>
       </c>
       <c r="B478" t="n">
-        <v>0.3714638732369497</v>
+        <v>0.3231628230623506</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.2579014414535089</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1047</v>
+        <v>883</v>
       </c>
       <c r="B479" t="n">
-        <v>0.3014860229512516</v>
+        <v>0.3353153271438641</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.254780265488161</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1046</v>
+        <v>879</v>
       </c>
       <c r="B480" t="n">
-        <v>0.2625190517900262</v>
+        <v>0.277586431710033</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.1849342979990994</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>1043</v>
+        <v>876</v>
       </c>
       <c r="B481" t="n">
-        <v>0.367913162861121</v>
+        <v>0.3448456140057056</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.1633794076887482</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1040</v>
+        <v>874</v>
       </c>
       <c r="B482" t="n">
-        <v>0.2874065835606111</v>
+        <v>0.3833724066002693</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.209900874411515</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1012</v>
+        <v>867</v>
       </c>
       <c r="B483" t="n">
-        <v>0.3366710064545428</v>
+        <v>0.3374772349933978</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.2630227457713761</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>1010</v>
+        <v>864</v>
       </c>
       <c r="B484" t="n">
-        <v>0.3187425304520861</v>
+        <v>0.2755967949218617</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.1064341186978191</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1008</v>
+        <v>863</v>
       </c>
       <c r="B485" t="n">
-        <v>0.3366751244965647</v>
+        <v>0.3223535084379703</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.1863551159177441</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>1001</v>
+        <v>862</v>
       </c>
       <c r="B486" t="n">
-        <v>0.3445484166870482</v>
+        <v>0.2674562904463378</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.2231539413487127</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>997</v>
+        <v>861</v>
       </c>
       <c r="B487" t="n">
-        <v>0.3079308469364923</v>
+        <v>0.3203787908146511</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.1903135193129304</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>996</v>
+        <v>856</v>
       </c>
       <c r="B488" t="n">
-        <v>0.307147796223862</v>
+        <v>0.358702693439347</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.3203907213169266</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>995</v>
+        <v>762</v>
       </c>
       <c r="B489" t="n">
-        <v>0.3330357634888178</v>
+        <v>0.4402074438926477</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.1323316890399918</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>994</v>
+        <v>734</v>
       </c>
       <c r="B490" t="n">
-        <v>0.34226275781994</v>
+        <v>0.4288621977334465</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.2166838587101288</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>991</v>
+        <v>733</v>
       </c>
       <c r="B491" t="n">
-        <v>0.315142580801568</v>
+        <v>0.414501029249998</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.3686430949561769</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>990</v>
+        <v>728</v>
       </c>
       <c r="B492" t="n">
-        <v>0.3347676668241278</v>
+        <v>0.3481020553664941</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.3055714196765502</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>988</v>
+        <v>727</v>
       </c>
       <c r="B493" t="n">
-        <v>0.3732930025595402</v>
+        <v>0.3874639373842398</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.3357100454986355</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>983</v>
+        <v>715</v>
       </c>
       <c r="B494" t="n">
-        <v>0.3732231554663086</v>
+        <v>0.5175052285791302</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.2953414759249049</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>981</v>
+        <v>710</v>
       </c>
       <c r="B495" t="n">
-        <v>0.3657296006825886</v>
+        <v>0.3769304374032884</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.2611155735777116</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>976</v>
+        <v>709</v>
       </c>
       <c r="B496" t="n">
-        <v>0.2995694820082652</v>
+        <v>0.3681886968569194</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.3653641762130475</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>964</v>
+        <v>708</v>
       </c>
       <c r="B497" t="n">
-        <v>0.2462943451732744</v>
+        <v>0.3602954560824463</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.3742427701028904</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>963</v>
+        <v>703</v>
       </c>
       <c r="B498" t="n">
-        <v>0.3328831153742769</v>
+        <v>0.3660334807576018</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.3623216621292077</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>898</v>
+        <v>700</v>
       </c>
       <c r="B499" t="n">
-        <v>0.3558597284017185</v>
+        <v>0.297544098311361</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.1992167813398683</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>897</v>
+        <v>699</v>
       </c>
       <c r="B500" t="n">
-        <v>0.3923738252810643</v>
+        <v>0.3736160651707772</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.3061063790473372</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>892</v>
+        <v>689</v>
       </c>
       <c r="B501" t="n">
-        <v>0.3459600128526741</v>
+        <v>0.3977184583462738</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.2509473491278962</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>891</v>
+        <v>688</v>
       </c>
       <c r="B502" t="n">
-        <v>0.3427847372047892</v>
+        <v>0.3466314651597842</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.304953728614187</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>889</v>
+        <v>683</v>
       </c>
       <c r="B503" t="n">
-        <v>0.346439048355998</v>
+        <v>0.3579631998414652</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.2606983052615506</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>887</v>
+        <v>676</v>
       </c>
       <c r="B504" t="n">
-        <v>0.3155086694576341</v>
+        <v>0.3700073186816613</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.246416617475107</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>886</v>
+        <v>668</v>
       </c>
       <c r="B505" t="n">
-        <v>0.3114343748664935</v>
+        <v>0.4045108681917818</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.270156079352157</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>884</v>
+        <v>667</v>
       </c>
       <c r="B506" t="n">
-        <v>0.3231375302475364</v>
+        <v>0.347356340820411</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.2472698009259018</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>883</v>
+        <v>664</v>
       </c>
       <c r="B507" t="n">
-        <v>0.3352251581543784</v>
+        <v>0.4181356960131309</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.2244603265391542</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>879</v>
+        <v>663</v>
       </c>
       <c r="B508" t="n">
-        <v>0.2775755272509611</v>
+        <v>0.3787978370192564</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.3069822476114801</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>876</v>
+        <v>647</v>
       </c>
       <c r="B509" t="n">
-        <v>0.3448500023492806</v>
+        <v>0.716320221642318</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.430332504891545</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>874</v>
+        <v>646</v>
       </c>
       <c r="B510" t="n">
-        <v>0.3449213733316298</v>
+        <v>0.3121316259572726</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.2817675519733147</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>867</v>
+        <v>645</v>
       </c>
       <c r="B511" t="n">
-        <v>0.3196704720271379</v>
+        <v>0.3226029351143307</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.3223243782317149</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>864</v>
+        <v>643</v>
       </c>
       <c r="B512" t="n">
-        <v>0.2756110760742899</v>
+        <v>0.3322274464089606</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.3247047159373805</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>863</v>
+        <v>642</v>
       </c>
       <c r="B513" t="n">
-        <v>0.322277501803539</v>
+        <v>0.263197860858539</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.1214430333797351</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>862</v>
+        <v>641</v>
       </c>
       <c r="B514" t="n">
-        <v>0.2675244119171013</v>
+        <v>0.3353036152019548</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.3334946132453286</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>861</v>
+        <v>638</v>
       </c>
       <c r="B515" t="n">
-        <v>0.3203499373217118</v>
+        <v>0.520133720507125</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.2225870734311969</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>856</v>
+        <v>634</v>
       </c>
       <c r="B516" t="n">
-        <v>0.358702693439347</v>
+        <v>0.3141030384938542</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.2922659532526966</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>762</v>
+        <v>620</v>
       </c>
       <c r="B517" t="n">
-        <v>0.4402259457574851</v>
+        <v>0.2974310824000511</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.2362716163809251</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>734</v>
+        <v>619</v>
       </c>
       <c r="B518" t="n">
-        <v>0.2755934741275219</v>
+        <v>0.2887279817831424</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.2414813146033479</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>733</v>
+        <v>617</v>
       </c>
       <c r="B519" t="n">
-        <v>0.4145110917929264</v>
+        <v>0.3374380860788944</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.2615345408433888</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>728</v>
+        <v>612</v>
       </c>
       <c r="B520" t="n">
-        <v>0.3481179262207681</v>
+        <v>0.3752567180277666</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.3202051799463601</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>727</v>
+        <v>610</v>
       </c>
       <c r="B521" t="n">
-        <v>0.3871808566892927</v>
+        <v>0.3914897393267112</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.2590834583054271</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>715</v>
+        <v>609</v>
       </c>
       <c r="B522" t="n">
-        <v>0.3255893141041027</v>
+        <v>0.2747834591178642</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.2027159777794167</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>710</v>
+        <v>603</v>
       </c>
       <c r="B523" t="n">
-        <v>0.3769282697853131</v>
+        <v>0.28662148768644</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.2111162714928838</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>709</v>
+        <v>602</v>
       </c>
       <c r="B524" t="n">
-        <v>0.3681886968569194</v>
+        <v>0.3337841799356025</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.1891464862212471</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>708</v>
+        <v>599</v>
       </c>
       <c r="B525" t="n">
-        <v>0.3602877688782523</v>
+        <v>0.2897984337318005</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.1904368642049083</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>703</v>
+        <v>594</v>
       </c>
       <c r="B526" t="n">
-        <v>0.3660334807576018</v>
+        <v>0.3247086226522313</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.2781701036575588</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>700</v>
+        <v>593</v>
       </c>
       <c r="B527" t="n">
-        <v>0.2670267936798713</v>
+        <v>0.3169886302761656</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.2728981108616458</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>699</v>
+        <v>589</v>
       </c>
       <c r="B528" t="n">
-        <v>0.3736168907071851</v>
+        <v>0.247999069994653</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.140870931578698</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>689</v>
+        <v>568</v>
       </c>
       <c r="B529" t="n">
-        <v>0.3183485987718839</v>
+        <v>0.3312870359383256</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.2662440343064067</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>688</v>
+        <v>564</v>
       </c>
       <c r="B530" t="n">
-        <v>0.3466285276405321</v>
+        <v>0.4110839022575526</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.2952971918938259</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>683</v>
+        <v>562</v>
       </c>
       <c r="B531" t="n">
-        <v>0.3579788668366091</v>
+        <v>0.2962859355181067</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.2562138572335754</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>676</v>
+        <v>548</v>
       </c>
       <c r="B532" t="n">
-        <v>0.3700026049210132</v>
+        <v>0.3083910063466689</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.3084141106750003</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>668</v>
+        <v>546</v>
       </c>
       <c r="B533" t="n">
-        <v>0.3552722882101608</v>
+        <v>0.2792496400803482</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.2493295270252981</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>667</v>
+        <v>544</v>
       </c>
       <c r="B534" t="n">
-        <v>0.3073167111980775</v>
+        <v>0.3253794831673822</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.2855397956738805</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>664</v>
+        <v>527</v>
       </c>
       <c r="B535" t="n">
-        <v>0.2941783823911608</v>
+        <v>0.288798724093042</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.1631058785197602</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>663</v>
+        <v>525</v>
       </c>
       <c r="B536" t="n">
-        <v>0.378796262855052</v>
+        <v>0.4160886199998528</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.2998604806057997</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>647</v>
+        <v>492</v>
       </c>
       <c r="B537" t="n">
-        <v>0.6825816861318814</v>
+        <v>0.3049832942994634</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.2931471098296178</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>646</v>
+        <v>478</v>
       </c>
       <c r="B538" t="n">
-        <v>0.3121316259572726</v>
+        <v>0.6812983278643299</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.1422045836307007</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>645</v>
+        <v>477</v>
       </c>
       <c r="B539" t="n">
-        <v>0.3226029351143307</v>
+        <v>0.3531981453388381</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.1900670662721338</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>643</v>
+        <v>470</v>
       </c>
       <c r="B540" t="n">
-        <v>0.3322288648300574</v>
+        <v>0.5014428597931114</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.3468801721279422</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>642</v>
+        <v>469</v>
       </c>
       <c r="B541" t="n">
-        <v>0.2631975618249111</v>
+        <v>0.358243572840765</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.3489041841524612</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>641</v>
+        <v>468</v>
       </c>
       <c r="B542" t="n">
-        <v>0.3353036152019548</v>
+        <v>0.2940272236455007</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.1680718401030663</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>638</v>
+        <v>465</v>
       </c>
       <c r="B543" t="n">
-        <v>0.3801648305569995</v>
+        <v>0.3471348907739311</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.2955413758503003</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>634</v>
+        <v>420</v>
       </c>
       <c r="B544" t="n">
-        <v>0.3141061257832846</v>
+        <v>0.3097212149231768</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.2491275399854817</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>620</v>
+        <v>404</v>
       </c>
       <c r="B545" t="n">
-        <v>0.2973396424120108</v>
+        <v>0.3671531726850844</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.3120295505499175</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>619</v>
+        <v>400</v>
       </c>
       <c r="B546" t="n">
-        <v>0.2887226672966584</v>
+        <v>0.3676962267921614</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.3105937252071636</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>617</v>
+        <v>384</v>
       </c>
       <c r="B547" t="n">
-        <v>0.3374566033111187</v>
+        <v>0.43881849766029</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0.2834573902048821</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>612</v>
+        <v>356</v>
       </c>
       <c r="B548" t="n">
-        <v>0.3755590312248314</v>
+        <v>0.355528324999643</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.3334032010165726</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>610</v>
+        <v>350</v>
       </c>
       <c r="B549" t="n">
-        <v>0.3914903785668595</v>
+        <v>0.3596894383367026</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.2624965897775636</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>609</v>
+        <v>345</v>
       </c>
       <c r="B550" t="n">
-        <v>0.2748044224694241</v>
+        <v>0.3809923393698146</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.2829217204559408</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>603</v>
+        <v>335</v>
       </c>
       <c r="B551" t="n">
-        <v>0.2866030569188245</v>
+        <v>0.3534123640294317</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.3252354302825092</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>602</v>
+        <v>331</v>
       </c>
       <c r="B552" t="n">
-        <v>0.3337847606576377</v>
+        <v>0.3372167362030046</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.2492348485314234</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>599</v>
+        <v>330</v>
       </c>
       <c r="B553" t="n">
-        <v>0.2897690319618676</v>
+        <v>0.3501235013183189</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.2412120281646828</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>594</v>
+        <v>315</v>
       </c>
       <c r="B554" t="n">
-        <v>0.3247020619139895</v>
+        <v>0.3443003753412407</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.3051875314616835</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>593</v>
+        <v>310</v>
       </c>
       <c r="B555" t="n">
-        <v>0.3169886302761656</v>
+        <v>0.3444615953286657</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.3093618196962259</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>589</v>
+        <v>302</v>
       </c>
       <c r="B556" t="n">
-        <v>0.2479983128772178</v>
+        <v>0.3311463226495991</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.2696241189546382</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>568</v>
+        <v>298</v>
       </c>
       <c r="B557" t="n">
-        <v>0.3312659941822946</v>
+        <v>0.3613227217092094</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.2669025803422295</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>564</v>
+        <v>273</v>
       </c>
       <c r="B558" t="n">
-        <v>0.411077687072541</v>
+        <v>0.3521560569923014</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.3199595367823486</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>562</v>
+        <v>271</v>
       </c>
       <c r="B559" t="n">
-        <v>0.2962859538685939</v>
+        <v>0.3571421555117228</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.3249548763900107</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>548</v>
+        <v>260</v>
       </c>
       <c r="B560" t="n">
-        <v>0.3083909294810996</v>
+        <v>0.3858298414836416</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.2694740902493692</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>546</v>
+        <v>259</v>
       </c>
       <c r="B561" t="n">
-        <v>0.2792414376852644</v>
+        <v>0.3619791342928174</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.2962747238342158</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>544</v>
+        <v>247</v>
       </c>
       <c r="B562" t="n">
-        <v>0.3252430771198473</v>
+        <v>0.3510012960083553</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0.18852587166391</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>527</v>
+        <v>228</v>
       </c>
       <c r="B563" t="n">
-        <v>0.2887874901169797</v>
+        <v>0.3635325720662348</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.3219723175252846</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>525</v>
+        <v>207</v>
       </c>
       <c r="B564" t="n">
-        <v>0.4160820511083065</v>
+        <v>0.3660932365622219</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0.1947442015054689</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>492</v>
+        <v>203</v>
       </c>
       <c r="B565" t="n">
-        <v>0.3049832942994634</v>
+        <v>0.2834730667671949</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.1918978677507494</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>478</v>
+        <v>202</v>
       </c>
       <c r="B566" t="n">
-        <v>0.2342496608981041</v>
+        <v>0.2681468325657321</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.1639544364359108</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>477</v>
+        <v>201</v>
       </c>
       <c r="B567" t="n">
-        <v>0.3534632166047404</v>
+        <v>0.7706178910319439</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.7284897258473415</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>470</v>
+        <v>173</v>
       </c>
       <c r="B568" t="n">
-        <v>0.5014621876602741</v>
+        <v>0.3497047874981657</v>
+      </c>
+      <c r="C568" t="n">
+        <v>0.2561048034794128</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>469</v>
+        <v>170</v>
       </c>
       <c r="B569" t="n">
-        <v>0.358243572840765</v>
+        <v>0.3518282612342708</v>
+      </c>
+      <c r="C569" t="n">
+        <v>0.2570984151976825</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>468</v>
+        <v>169</v>
       </c>
       <c r="B570" t="n">
-        <v>0.2940198783695204</v>
+        <v>0.3004044514870547</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0.2170806632052326</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>465</v>
+        <v>165</v>
       </c>
       <c r="B571" t="n">
-        <v>0.3231763901250269</v>
+        <v>0.3210171629544021</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.2462887230203989</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="B572" t="n">
-        <v>0.3097212149231768</v>
+        <v>0.3515471153187485</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0.3185928563096981</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>404</v>
+        <v>147</v>
       </c>
       <c r="B573" t="n">
-        <v>0.3671531726850844</v>
+        <v>0.3515262762362734</v>
+      </c>
+      <c r="C573" t="n">
+        <v>0.2395431762873686</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>400</v>
+        <v>141</v>
       </c>
       <c r="B574" t="n">
-        <v>0.3678695999806437</v>
+        <v>0.367543210248301</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0.2721594133947662</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>384</v>
+        <v>136</v>
       </c>
       <c r="B575" t="n">
-        <v>0.4388086950853473</v>
+        <v>0.3511349847169534</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0.3134993682521475</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>356</v>
+        <v>130</v>
       </c>
       <c r="B576" t="n">
-        <v>0.3555001397151781</v>
+        <v>0.364273108080726</v>
+      </c>
+      <c r="C576" t="n">
+        <v>0.3527975134186031</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>350</v>
+        <v>127</v>
       </c>
       <c r="B577" t="n">
-        <v>0.3600124877188717</v>
+        <v>0.3085757863226694</v>
+      </c>
+      <c r="C577" t="n">
+        <v>0.1581232939983689</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>345</v>
+        <v>126</v>
       </c>
       <c r="B578" t="n">
-        <v>0.3808789128902452</v>
+        <v>0.3539238469507933</v>
+      </c>
+      <c r="C578" t="n">
+        <v>0.2922839990530961</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="B579" t="n">
-        <v>0.3533182802197481</v>
+        <v>0.3379928498007517</v>
+      </c>
+      <c r="C579" t="n">
+        <v>0.2972896335173922</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>331</v>
+        <v>118</v>
       </c>
       <c r="B580" t="n">
-        <v>0.3372394431401823</v>
+        <v>0.4622395236354686</v>
+      </c>
+      <c r="C580" t="n">
+        <v>0.2512822110464032</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>330</v>
+        <v>113</v>
       </c>
       <c r="B581" t="n">
-        <v>0.3501562066507393</v>
+        <v>0.3269130719471621</v>
+      </c>
+      <c r="C581" t="n">
+        <v>0.2433531768096887</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>315</v>
+        <v>108</v>
       </c>
       <c r="B582" t="n">
-        <v>0.3442509209328273</v>
+        <v>0.3300637015844788</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.1867550485666525</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="B583" t="n">
-        <v>0.3444615953286657</v>
+        <v>0.3161379995005114</v>
+      </c>
+      <c r="C583" t="n">
+        <v>0.03263717049601847</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>302</v>
+        <v>60</v>
       </c>
       <c r="B584" t="n">
-        <v>0.3311463226495991</v>
+        <v>0.2786961920422689</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0.2755652918697458</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>298</v>
+        <v>59</v>
       </c>
       <c r="B585" t="n">
-        <v>0.361312343078132</v>
+        <v>0.3088979172625925</v>
+      </c>
+      <c r="C585" t="n">
+        <v>0.2999095266849157</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>273</v>
+        <v>56</v>
       </c>
       <c r="B586" t="n">
-        <v>0.3521553493317711</v>
+        <v>0.3344194400212279</v>
+      </c>
+      <c r="C586" t="n">
+        <v>0.3236855822390676</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>271</v>
+        <v>51</v>
       </c>
       <c r="B587" t="n">
-        <v>0.3574134990599867</v>
+        <v>0.3578483302564338</v>
+      </c>
+      <c r="C587" t="n">
+        <v>0.3115623544772239</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="B588" t="n">
-        <v>0.3858535279065634</v>
+        <v>0.3382103314153803</v>
+      </c>
+      <c r="C588" t="n">
+        <v>0.2378201896556143</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>259</v>
+        <v>47</v>
       </c>
       <c r="B589" t="n">
-        <v>0.3620092955155698</v>
+        <v>0.3423781471033585</v>
+      </c>
+      <c r="C589" t="n">
+        <v>0.3153820037479348</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="B590" t="n">
-        <v>0.2672701118194771</v>
+        <v>0.3375448249535086</v>
+      </c>
+      <c r="C590" t="n">
+        <v>0.3387203023860262</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="B591" t="n">
-        <v>0.3636507099401032</v>
+        <v>0.3459256269872112</v>
+      </c>
+      <c r="C591" t="n">
+        <v>0.3036856568335025</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>207</v>
+        <v>8</v>
       </c>
       <c r="B592" t="n">
-        <v>0.3660835724743637</v>
+        <v>0.3537377413268604</v>
+      </c>
+      <c r="C592" t="n">
+        <v>0.295285123054942</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="B593" t="n">
-        <v>0.3497094028667997</v>
+        <v>0.3485682505661231</v>
+      </c>
+      <c r="C593" t="n">
+        <v>0.1810269160386408</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="B594" t="n">
-        <v>0.3518384702093796</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="n">
-        <v>169</v>
-      </c>
-      <c r="B595" t="n">
-        <v>0.3004026718420176</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="n">
-        <v>165</v>
-      </c>
-      <c r="B596" t="n">
-        <v>0.3210175149608185</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="n">
-        <v>160</v>
-      </c>
-      <c r="B597" t="n">
-        <v>0.3515471153187485</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="n">
-        <v>147</v>
-      </c>
-      <c r="B598" t="n">
-        <v>0.3081842346543551</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="n">
-        <v>141</v>
-      </c>
-      <c r="B599" t="n">
-        <v>0.3674216325465015</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="n">
-        <v>136</v>
-      </c>
-      <c r="B600" t="n">
-        <v>0.3511349847169534</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="n">
-        <v>130</v>
-      </c>
-      <c r="B601" t="n">
-        <v>0.364273108080726</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="n">
-        <v>127</v>
-      </c>
-      <c r="B602" t="n">
-        <v>0.3085360663484718</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="n">
-        <v>126</v>
-      </c>
-      <c r="B603" t="n">
-        <v>0.3539697342427751</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="n">
-        <v>120</v>
-      </c>
-      <c r="B604" t="n">
-        <v>0.3380948449950786</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="n">
-        <v>118</v>
-      </c>
-      <c r="B605" t="n">
-        <v>0.3503714076619964</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="n">
-        <v>113</v>
-      </c>
-      <c r="B606" t="n">
-        <v>0.3269117582822967</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="n">
-        <v>108</v>
-      </c>
-      <c r="B607" t="n">
-        <v>0.3300637015844788</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="n">
-        <v>87</v>
-      </c>
-      <c r="B608" t="n">
-        <v>0.3161335529479617</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="n">
-        <v>60</v>
-      </c>
-      <c r="B609" t="n">
-        <v>0.2786961033100487</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="n">
-        <v>59</v>
-      </c>
-      <c r="B610" t="n">
-        <v>0.3089171995125549</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="n">
-        <v>56</v>
-      </c>
-      <c r="B611" t="n">
-        <v>0.3344194400212279</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="n">
-        <v>51</v>
-      </c>
-      <c r="B612" t="n">
-        <v>0.3578476531704343</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="n">
-        <v>50</v>
-      </c>
-      <c r="B613" t="n">
-        <v>0.3382103314153803</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="n">
-        <v>47</v>
-      </c>
-      <c r="B614" t="n">
-        <v>0.3423781471033585</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="n">
-        <v>26</v>
-      </c>
-      <c r="B615" t="n">
-        <v>0.3375448249535086</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="n">
-        <v>10</v>
-      </c>
-      <c r="B616" t="n">
-        <v>0.3459256269872109</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="n">
-        <v>8</v>
-      </c>
-      <c r="B617" t="n">
-        <v>0.3537377413268604</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="n">
-        <v>5</v>
-      </c>
-      <c r="B618" t="n">
-        <v>0.2804157340221184</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="n">
-        <v>3</v>
-      </c>
-      <c r="B619" t="n">
         <v>0.3692778091100342</v>
+      </c>
+      <c r="C594" t="n">
+        <v>0.1348707240278138</v>
       </c>
     </row>
   </sheetData>
